--- a/app/resource/xlsx/major_proposal_template_1_case5.xlsx
+++ b/app/resource/xlsx/major_proposal_template_1_case5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\Documents\GitHub\xero-asana-intergration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062661C6-73B2-49BE-816E-EDF2C9719D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D398970-10FC-460B-ABD5-FBF461702E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1914,6 +1914,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2279,15 +2297,87 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,117 +2390,132 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2432,119 +2537,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2567,83 +2618,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2669,26 +2681,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4019,8 +4035,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A216" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226:D227"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A221" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,67 +4053,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="178" t="s">
+      <c r="F37" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="177" t="s">
+      <c r="F38" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="177"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="177" t="s">
+      <c r="F39" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="177" t="s">
+      <c r="F41" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4105,10 +4121,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="176"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="I43" s="33" t="s">
         <v>243</v>
       </c>
@@ -4117,16 +4133,16 @@
       <c r="A45" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146" t="e">
+      <c r="B45" s="139"/>
+      <c r="C45" s="139" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4134,10 +4150,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4200,15 +4216,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="172"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4233,26 +4249,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="141"/>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="141"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="141"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4260,93 +4276,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="171"/>
-      <c r="R54" s="171"/>
-      <c r="S54" s="171"/>
-      <c r="T54" s="171"/>
-      <c r="U54" s="171"/>
-      <c r="V54" s="171"/>
-      <c r="W54" s="171"/>
-      <c r="X54" s="171"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="151"/>
+      <c r="S54" s="151"/>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="151"/>
+      <c r="W54" s="151"/>
+      <c r="X54" s="151"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="141" t="s">
+      <c r="A56" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="141"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="M56" s="168"/>
-      <c r="N56" s="168"/>
-      <c r="O56" s="168"/>
-      <c r="P56" s="168"/>
-      <c r="Q56" s="168"/>
-      <c r="R56" s="168"/>
-      <c r="S56" s="168"/>
-      <c r="T56" s="168"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="M56" s="149"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="149"/>
+      <c r="R56" s="149"/>
+      <c r="S56" s="149"/>
+      <c r="T56" s="149"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="141"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="168"/>
-      <c r="P57" s="168"/>
-      <c r="Q57" s="168"/>
-      <c r="R57" s="168"/>
-      <c r="S57" s="168"/>
-      <c r="T57" s="168"/>
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="M57" s="149"/>
+      <c r="N57" s="149"/>
+      <c r="O57" s="149"/>
+      <c r="P57" s="149"/>
+      <c r="Q57" s="149"/>
+      <c r="R57" s="149"/>
+      <c r="S57" s="149"/>
+      <c r="T57" s="149"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="141"/>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="M58" s="168"/>
-      <c r="N58" s="168"/>
-      <c r="O58" s="168"/>
-      <c r="P58" s="168"/>
-      <c r="Q58" s="168"/>
-      <c r="R58" s="168"/>
-      <c r="S58" s="168"/>
-      <c r="T58" s="168"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="141"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
-      <c r="P59" s="168"/>
-      <c r="Q59" s="168"/>
-      <c r="R59" s="168"/>
-      <c r="S59" s="168"/>
-      <c r="T59" s="168"/>
+      <c r="A59" s="143"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="M59" s="149"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="149"/>
+      <c r="P59" s="149"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="149"/>
+      <c r="T59" s="149"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4364,30 +4380,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="141"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="141"/>
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="143"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4399,16 +4415,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="143"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="143"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4418,32 +4434,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="141" t="s">
+      <c r="B64" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="141" t="s">
+      <c r="B65" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="141"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4452,16 +4468,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="141" t="s">
+      <c r="B66" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="141"/>
-      <c r="I66" s="141"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="143"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4482,29 +4498,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="141"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="143"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="141"/>
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
+      <c r="A69" s="143"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4653,24 +4669,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4719,16 +4735,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="141" t="s">
+      <c r="B91" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="141"/>
-      <c r="D91" s="141"/>
-      <c r="E91" s="141"/>
-      <c r="F91" s="141"/>
-      <c r="G91" s="141"/>
-      <c r="H91" s="141"/>
-      <c r="I91" s="141"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="143"/>
+      <c r="E91" s="143"/>
+      <c r="F91" s="143"/>
+      <c r="G91" s="143"/>
+      <c r="H91" s="143"/>
+      <c r="I91" s="143"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4737,25 +4753,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="141"/>
-      <c r="C92" s="141"/>
-      <c r="D92" s="141"/>
-      <c r="E92" s="141"/>
-      <c r="F92" s="141"/>
-      <c r="G92" s="141"/>
-      <c r="H92" s="141"/>
-      <c r="I92" s="141"/>
+      <c r="B92" s="143"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="143"/>
+      <c r="I92" s="143"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="141"/>
-      <c r="C93" s="141"/>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="141"/>
-      <c r="I93" s="141"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="143"/>
+      <c r="E93" s="143"/>
+      <c r="F93" s="143"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="143"/>
+      <c r="I93" s="143"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4991,257 +5007,257 @@
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="124"/>
-      <c r="B114" s="154"/>
-      <c r="C114" s="147"/>
-      <c r="D114" s="147"/>
-      <c r="E114" s="147"/>
-      <c r="F114" s="147"/>
-      <c r="G114" s="147"/>
-      <c r="H114" s="147"/>
-      <c r="I114" s="148"/>
+      <c r="B114" s="268"/>
+      <c r="C114" s="268"/>
+      <c r="D114" s="268"/>
+      <c r="E114" s="268"/>
+      <c r="F114" s="268"/>
+      <c r="G114" s="268"/>
+      <c r="H114" s="268"/>
+      <c r="I114" s="268"/>
       <c r="L114" s="1"/>
       <c r="M114" s="85"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="124"/>
-      <c r="B115" s="155"/>
-      <c r="C115" s="149"/>
-      <c r="D115" s="149"/>
-      <c r="E115" s="149"/>
-      <c r="F115" s="149"/>
-      <c r="G115" s="149"/>
-      <c r="H115" s="149"/>
-      <c r="I115" s="150"/>
+      <c r="B115" s="268"/>
+      <c r="C115" s="268"/>
+      <c r="D115" s="268"/>
+      <c r="E115" s="268"/>
+      <c r="F115" s="268"/>
+      <c r="G115" s="268"/>
+      <c r="H115" s="268"/>
+      <c r="I115" s="268"/>
       <c r="L115" s="1"/>
       <c r="M115" s="85"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="124"/>
-      <c r="B116" s="156"/>
-      <c r="C116" s="157"/>
-      <c r="D116" s="157"/>
-      <c r="E116" s="157"/>
-      <c r="F116" s="157"/>
-      <c r="G116" s="157"/>
-      <c r="H116" s="157"/>
-      <c r="I116" s="167"/>
+      <c r="B116" s="273"/>
+      <c r="C116" s="273"/>
+      <c r="D116" s="273"/>
+      <c r="E116" s="273"/>
+      <c r="F116" s="273"/>
+      <c r="G116" s="273"/>
+      <c r="H116" s="273"/>
+      <c r="I116" s="273"/>
       <c r="L116" s="1"/>
       <c r="M116" s="85"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="124"/>
-      <c r="B117" s="154" t="s">
+      <c r="B117" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="147"/>
-      <c r="D117" s="147" t="s">
+      <c r="C117" s="267"/>
+      <c r="D117" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="E117" s="147"/>
-      <c r="F117" s="147"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="148"/>
+      <c r="E117" s="267"/>
+      <c r="F117" s="267"/>
+      <c r="G117" s="267"/>
+      <c r="H117" s="267"/>
+      <c r="I117" s="154"/>
       <c r="L117" s="1"/>
       <c r="M117" s="85"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="124"/>
-      <c r="B118" s="155"/>
-      <c r="C118" s="149"/>
-      <c r="D118" s="149" t="s">
+      <c r="B118" s="162"/>
+      <c r="C118" s="153"/>
+      <c r="D118" s="153" t="s">
         <v>278</v>
       </c>
-      <c r="E118" s="149"/>
-      <c r="F118" s="149"/>
-      <c r="G118" s="149"/>
-      <c r="H118" s="149"/>
-      <c r="I118" s="150"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="153"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="154"/>
       <c r="L118" s="1"/>
       <c r="M118" s="85"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="124"/>
-      <c r="B119" s="156"/>
-      <c r="C119" s="157"/>
-      <c r="D119" s="157" t="s">
+      <c r="B119" s="163"/>
+      <c r="C119" s="155"/>
+      <c r="D119" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="E119" s="157"/>
-      <c r="F119" s="157"/>
-      <c r="G119" s="157"/>
-      <c r="H119" s="157"/>
-      <c r="I119" s="167"/>
+      <c r="E119" s="155"/>
+      <c r="F119" s="155"/>
+      <c r="G119" s="155"/>
+      <c r="H119" s="155"/>
+      <c r="I119" s="156"/>
       <c r="L119" s="1"/>
       <c r="M119" s="85"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="124"/>
-      <c r="B120" s="154" t="s">
+      <c r="B120" s="161" t="s">
         <v>295</v>
       </c>
-      <c r="C120" s="147"/>
-      <c r="D120" s="147" t="s">
+      <c r="C120" s="157"/>
+      <c r="D120" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="147"/>
-      <c r="F120" s="147"/>
-      <c r="G120" s="147"/>
-      <c r="H120" s="147"/>
-      <c r="I120" s="148"/>
+      <c r="E120" s="157"/>
+      <c r="F120" s="157"/>
+      <c r="G120" s="157"/>
+      <c r="H120" s="157"/>
+      <c r="I120" s="158"/>
       <c r="L120" s="1"/>
       <c r="M120" s="85"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="124"/>
-      <c r="B121" s="155"/>
-      <c r="C121" s="149"/>
-      <c r="D121" s="149" t="s">
+      <c r="B121" s="162"/>
+      <c r="C121" s="153"/>
+      <c r="D121" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="E121" s="149"/>
-      <c r="F121" s="149"/>
-      <c r="G121" s="149"/>
-      <c r="H121" s="149"/>
-      <c r="I121" s="150"/>
+      <c r="E121" s="153"/>
+      <c r="F121" s="153"/>
+      <c r="G121" s="153"/>
+      <c r="H121" s="153"/>
+      <c r="I121" s="154"/>
       <c r="L121" s="1"/>
       <c r="M121" s="85"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="124"/>
-      <c r="B122" s="155"/>
-      <c r="C122" s="149"/>
-      <c r="D122" s="149" t="s">
+      <c r="B122" s="162"/>
+      <c r="C122" s="153"/>
+      <c r="D122" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="E122" s="149"/>
-      <c r="F122" s="149"/>
-      <c r="G122" s="149"/>
-      <c r="H122" s="149"/>
-      <c r="I122" s="150"/>
+      <c r="E122" s="153"/>
+      <c r="F122" s="153"/>
+      <c r="G122" s="153"/>
+      <c r="H122" s="153"/>
+      <c r="I122" s="154"/>
       <c r="L122" s="1"/>
       <c r="M122" s="85"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="124"/>
-      <c r="B123" s="155"/>
-      <c r="C123" s="149"/>
-      <c r="D123" s="149" t="s">
+      <c r="B123" s="162"/>
+      <c r="C123" s="153"/>
+      <c r="D123" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="149"/>
-      <c r="F123" s="149"/>
-      <c r="G123" s="149"/>
-      <c r="H123" s="149"/>
-      <c r="I123" s="150"/>
+      <c r="E123" s="153"/>
+      <c r="F123" s="153"/>
+      <c r="G123" s="153"/>
+      <c r="H123" s="153"/>
+      <c r="I123" s="154"/>
       <c r="L123" s="1"/>
       <c r="M123" s="85"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="124"/>
-      <c r="B124" s="156"/>
-      <c r="C124" s="157"/>
-      <c r="D124" s="157" t="s">
+      <c r="B124" s="162"/>
+      <c r="C124" s="267"/>
+      <c r="D124" s="267" t="s">
         <v>282</v>
       </c>
-      <c r="E124" s="157"/>
-      <c r="F124" s="157"/>
-      <c r="G124" s="157"/>
-      <c r="H124" s="157"/>
-      <c r="I124" s="167"/>
+      <c r="E124" s="267"/>
+      <c r="F124" s="267"/>
+      <c r="G124" s="267"/>
+      <c r="H124" s="267"/>
+      <c r="I124" s="154"/>
       <c r="L124" s="1"/>
       <c r="M124" s="85"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="124"/>
-      <c r="B125" s="162"/>
-      <c r="C125" s="158"/>
-      <c r="D125" s="158"/>
-      <c r="E125" s="158"/>
-      <c r="F125" s="158"/>
-      <c r="G125" s="158"/>
-      <c r="H125" s="158"/>
-      <c r="I125" s="159"/>
+      <c r="B125" s="272"/>
+      <c r="C125" s="272"/>
+      <c r="D125" s="272"/>
+      <c r="E125" s="272"/>
+      <c r="F125" s="272"/>
+      <c r="G125" s="272"/>
+      <c r="H125" s="272"/>
+      <c r="I125" s="272"/>
       <c r="L125" s="1"/>
       <c r="M125" s="85"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="124"/>
-      <c r="B126" s="163"/>
-      <c r="C126" s="160"/>
-      <c r="D126" s="160"/>
-      <c r="E126" s="160"/>
-      <c r="F126" s="160"/>
-      <c r="G126" s="160"/>
-      <c r="H126" s="160"/>
-      <c r="I126" s="161"/>
+      <c r="B126" s="269"/>
+      <c r="C126" s="269"/>
+      <c r="D126" s="269"/>
+      <c r="E126" s="269"/>
+      <c r="F126" s="269"/>
+      <c r="G126" s="269"/>
+      <c r="H126" s="269"/>
+      <c r="I126" s="269"/>
       <c r="L126" s="1"/>
       <c r="M126" s="85"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="123"/>
-      <c r="B127" s="163"/>
-      <c r="C127" s="160"/>
-      <c r="D127" s="160"/>
-      <c r="E127" s="160"/>
-      <c r="F127" s="160"/>
-      <c r="G127" s="160"/>
-      <c r="H127" s="160"/>
-      <c r="I127" s="161"/>
+      <c r="B127" s="269"/>
+      <c r="C127" s="269"/>
+      <c r="D127" s="269"/>
+      <c r="E127" s="269"/>
+      <c r="F127" s="269"/>
+      <c r="G127" s="269"/>
+      <c r="H127" s="269"/>
+      <c r="I127" s="269"/>
       <c r="M127" s="86"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="123"/>
-      <c r="B128" s="163"/>
-      <c r="C128" s="160"/>
-      <c r="D128" s="160"/>
-      <c r="E128" s="160"/>
-      <c r="F128" s="160"/>
-      <c r="G128" s="160"/>
-      <c r="H128" s="160"/>
-      <c r="I128" s="161"/>
+      <c r="B128" s="269"/>
+      <c r="C128" s="269"/>
+      <c r="D128" s="269"/>
+      <c r="E128" s="269"/>
+      <c r="F128" s="269"/>
+      <c r="G128" s="269"/>
+      <c r="H128" s="269"/>
+      <c r="I128" s="269"/>
       <c r="M128" s="86"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="123"/>
-      <c r="B129" s="164"/>
-      <c r="C129" s="165"/>
-      <c r="D129" s="165"/>
-      <c r="E129" s="165"/>
-      <c r="F129" s="165"/>
-      <c r="G129" s="165"/>
-      <c r="H129" s="165"/>
-      <c r="I129" s="166"/>
+      <c r="B129" s="269"/>
+      <c r="C129" s="269"/>
+      <c r="D129" s="269"/>
+      <c r="E129" s="269"/>
+      <c r="F129" s="269"/>
+      <c r="G129" s="269"/>
+      <c r="H129" s="269"/>
+      <c r="I129" s="269"/>
       <c r="M129" s="86"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
     <row r="130" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="123"/>
-      <c r="B130" s="128"/>
-      <c r="C130" s="123"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="123"/>
-      <c r="F130" s="123"/>
-      <c r="G130" s="123"/>
-      <c r="H130" s="123"/>
-      <c r="I130" s="123"/>
+      <c r="B130" s="270"/>
+      <c r="C130" s="271"/>
+      <c r="D130" s="271"/>
+      <c r="E130" s="271"/>
+      <c r="F130" s="271"/>
+      <c r="G130" s="271"/>
+      <c r="H130" s="271"/>
+      <c r="I130" s="271"/>
       <c r="M130" s="86"/>
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
@@ -5290,16 +5306,16 @@
         <f t="shared" ref="L134:L145" si="2">IF(M134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M134" s="170" t="s">
+      <c r="M134" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="170"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
-      <c r="S134" s="170"/>
-      <c r="T134" s="170"/>
+      <c r="N134" s="141"/>
+      <c r="O134" s="141"/>
+      <c r="P134" s="141"/>
+      <c r="Q134" s="141"/>
+      <c r="R134" s="141"/>
+      <c r="S134" s="141"/>
+      <c r="T134" s="141"/>
     </row>
     <row r="135" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
@@ -5307,16 +5323,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M135" s="170" t="s">
+      <c r="M135" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="N135" s="170"/>
-      <c r="O135" s="170"/>
-      <c r="P135" s="170"/>
-      <c r="Q135" s="170"/>
-      <c r="R135" s="170"/>
-      <c r="S135" s="170"/>
-      <c r="T135" s="170"/>
+      <c r="N135" s="141"/>
+      <c r="O135" s="141"/>
+      <c r="P135" s="141"/>
+      <c r="Q135" s="141"/>
+      <c r="R135" s="141"/>
+      <c r="S135" s="141"/>
+      <c r="T135" s="141"/>
     </row>
     <row r="136" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="str">
@@ -5373,16 +5389,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M139" s="141" t="s">
+      <c r="M139" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="N139" s="141"/>
-      <c r="O139" s="141"/>
-      <c r="P139" s="141"/>
-      <c r="Q139" s="141"/>
-      <c r="R139" s="141"/>
-      <c r="S139" s="141"/>
-      <c r="T139" s="141"/>
+      <c r="N139" s="143"/>
+      <c r="O139" s="143"/>
+      <c r="P139" s="143"/>
+      <c r="Q139" s="143"/>
+      <c r="R139" s="143"/>
+      <c r="S139" s="143"/>
+      <c r="T139" s="143"/>
     </row>
     <row r="140" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
@@ -5429,16 +5445,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M143" s="170" t="s">
+      <c r="M143" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="N143" s="170"/>
-      <c r="O143" s="170"/>
-      <c r="P143" s="170"/>
-      <c r="Q143" s="170"/>
-      <c r="R143" s="170"/>
-      <c r="S143" s="170"/>
-      <c r="T143" s="170"/>
+      <c r="N143" s="141"/>
+      <c r="O143" s="141"/>
+      <c r="P143" s="141"/>
+      <c r="Q143" s="141"/>
+      <c r="R143" s="141"/>
+      <c r="S143" s="141"/>
+      <c r="T143" s="141"/>
     </row>
     <row r="144" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
@@ -5458,28 +5474,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M145" s="170" t="s">
+      <c r="M145" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="N145" s="170"/>
-      <c r="O145" s="170"/>
-      <c r="P145" s="170"/>
-      <c r="Q145" s="170"/>
-      <c r="R145" s="170"/>
-      <c r="S145" s="170"/>
-      <c r="T145" s="170"/>
+      <c r="N145" s="141"/>
+      <c r="O145" s="141"/>
+      <c r="P145" s="141"/>
+      <c r="Q145" s="141"/>
+      <c r="R145" s="141"/>
+      <c r="S145" s="141"/>
+      <c r="T145" s="141"/>
     </row>
     <row r="146" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="L146" s="31"/>
-      <c r="M146" s="170"/>
-      <c r="N146" s="170"/>
-      <c r="O146" s="170"/>
-      <c r="P146" s="170"/>
-      <c r="Q146" s="170"/>
-      <c r="R146" s="170"/>
-      <c r="S146" s="170"/>
-      <c r="T146" s="170"/>
+      <c r="M146" s="141"/>
+      <c r="N146" s="141"/>
+      <c r="O146" s="141"/>
+      <c r="P146" s="141"/>
+      <c r="Q146" s="141"/>
+      <c r="R146" s="141"/>
+      <c r="S146" s="141"/>
+      <c r="T146" s="141"/>
     </row>
     <row r="147" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
@@ -6011,16 +6027,16 @@
     </row>
     <row r="179" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="59"/>
-      <c r="B179" s="141" t="s">
+      <c r="B179" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="141"/>
-      <c r="D179" s="141"/>
-      <c r="E179" s="141"/>
-      <c r="F179" s="141"/>
-      <c r="G179" s="141"/>
-      <c r="H179" s="141"/>
-      <c r="I179" s="141"/>
+      <c r="C179" s="143"/>
+      <c r="D179" s="143"/>
+      <c r="E179" s="143"/>
+      <c r="F179" s="143"/>
+      <c r="G179" s="143"/>
+      <c r="H179" s="143"/>
+      <c r="I179" s="143"/>
       <c r="K179" s="58"/>
       <c r="N179" s="42"/>
       <c r="O179" s="42"/>
@@ -6028,14 +6044,14 @@
     </row>
     <row r="180" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="59"/>
-      <c r="B180" s="141"/>
-      <c r="C180" s="141"/>
-      <c r="D180" s="141"/>
-      <c r="E180" s="141"/>
-      <c r="F180" s="141"/>
-      <c r="G180" s="141"/>
-      <c r="H180" s="141"/>
-      <c r="I180" s="141"/>
+      <c r="B180" s="143"/>
+      <c r="C180" s="143"/>
+      <c r="D180" s="143"/>
+      <c r="E180" s="143"/>
+      <c r="F180" s="143"/>
+      <c r="G180" s="143"/>
+      <c r="H180" s="143"/>
+      <c r="I180" s="143"/>
       <c r="K180" s="58"/>
       <c r="M180" s="42"/>
       <c r="N180" s="42"/>
@@ -6044,14 +6060,14 @@
     </row>
     <row r="181" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="59"/>
-      <c r="B181" s="141"/>
-      <c r="C181" s="141"/>
-      <c r="D181" s="141"/>
-      <c r="E181" s="141"/>
-      <c r="F181" s="141"/>
-      <c r="G181" s="141"/>
-      <c r="H181" s="141"/>
-      <c r="I181" s="141"/>
+      <c r="B181" s="143"/>
+      <c r="C181" s="143"/>
+      <c r="D181" s="143"/>
+      <c r="E181" s="143"/>
+      <c r="F181" s="143"/>
+      <c r="G181" s="143"/>
+      <c r="H181" s="143"/>
+      <c r="I181" s="143"/>
       <c r="K181" s="58"/>
       <c r="M181" s="42"/>
       <c r="N181" s="42"/>
@@ -6060,14 +6076,14 @@
     </row>
     <row r="182" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="59"/>
-      <c r="B182" s="141"/>
-      <c r="C182" s="141"/>
-      <c r="D182" s="141"/>
-      <c r="E182" s="141"/>
-      <c r="F182" s="141"/>
-      <c r="G182" s="141"/>
-      <c r="H182" s="141"/>
-      <c r="I182" s="141"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="143"/>
+      <c r="E182" s="143"/>
+      <c r="F182" s="143"/>
+      <c r="G182" s="143"/>
+      <c r="H182" s="143"/>
+      <c r="I182" s="143"/>
       <c r="K182" s="58"/>
       <c r="M182" s="42"/>
       <c r="N182" s="42"/>
@@ -6110,16 +6126,16 @@
     </row>
     <row r="185" spans="1:17" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="59"/>
-      <c r="B185" s="141" t="s">
+      <c r="B185" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="C185" s="141"/>
-      <c r="D185" s="141"/>
-      <c r="E185" s="141"/>
-      <c r="F185" s="141"/>
-      <c r="G185" s="141"/>
-      <c r="H185" s="141"/>
-      <c r="I185" s="141"/>
+      <c r="C185" s="143"/>
+      <c r="D185" s="143"/>
+      <c r="E185" s="143"/>
+      <c r="F185" s="143"/>
+      <c r="G185" s="143"/>
+      <c r="H185" s="143"/>
+      <c r="I185" s="143"/>
       <c r="K185" s="58"/>
       <c r="M185" s="42"/>
       <c r="N185" s="42"/>
@@ -6128,14 +6144,14 @@
     </row>
     <row r="186" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="59"/>
-      <c r="B186" s="141"/>
-      <c r="C186" s="141"/>
-      <c r="D186" s="141"/>
-      <c r="E186" s="141"/>
-      <c r="F186" s="141"/>
-      <c r="G186" s="141"/>
-      <c r="H186" s="141"/>
-      <c r="I186" s="141"/>
+      <c r="B186" s="143"/>
+      <c r="C186" s="143"/>
+      <c r="D186" s="143"/>
+      <c r="E186" s="143"/>
+      <c r="F186" s="143"/>
+      <c r="G186" s="143"/>
+      <c r="H186" s="143"/>
+      <c r="I186" s="143"/>
       <c r="K186" s="58" t="s">
         <v>218</v>
       </c>
@@ -6258,16 +6274,16 @@
     </row>
     <row r="193" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="58"/>
-      <c r="B193" s="170" t="s">
+      <c r="B193" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="C193" s="170"/>
-      <c r="D193" s="170"/>
-      <c r="E193" s="170"/>
-      <c r="F193" s="170"/>
-      <c r="G193" s="170"/>
-      <c r="H193" s="170"/>
-      <c r="I193" s="170"/>
+      <c r="C193" s="141"/>
+      <c r="D193" s="141"/>
+      <c r="E193" s="141"/>
+      <c r="F193" s="141"/>
+      <c r="G193" s="141"/>
+      <c r="H193" s="141"/>
+      <c r="I193" s="141"/>
       <c r="K193" s="58" t="s">
         <v>280</v>
       </c>
@@ -6509,16 +6525,16 @@
     </row>
     <row r="206" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="58"/>
-      <c r="B206" s="146" t="s">
+      <c r="B206" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="146"/>
-      <c r="D206" s="146"/>
-      <c r="E206" s="146"/>
-      <c r="F206" s="146"/>
-      <c r="G206" s="146"/>
-      <c r="H206" s="146"/>
-      <c r="I206" s="146"/>
+      <c r="C206" s="139"/>
+      <c r="D206" s="139"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
       <c r="K206" t="s">
         <v>65</v>
       </c>
@@ -6577,16 +6593,16 @@
       <c r="P210" s="42"/>
     </row>
     <row r="211" spans="1:20" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="170" t="s">
+      <c r="B211" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="C211" s="170"/>
-      <c r="D211" s="170"/>
-      <c r="E211" s="170"/>
-      <c r="F211" s="170"/>
-      <c r="G211" s="170"/>
-      <c r="H211" s="170"/>
-      <c r="I211" s="170"/>
+      <c r="C211" s="141"/>
+      <c r="D211" s="141"/>
+      <c r="E211" s="141"/>
+      <c r="F211" s="141"/>
+      <c r="G211" s="141"/>
+      <c r="H211" s="141"/>
+      <c r="I211" s="141"/>
       <c r="K211" s="58"/>
       <c r="L211" s="60"/>
     </row>
@@ -6595,14 +6611,14 @@
         <v>142</v>
       </c>
       <c r="C212" s="78"/>
-      <c r="D212" s="151" t="s">
+      <c r="D212" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="E212" s="151"/>
-      <c r="F212" s="151" t="s">
+      <c r="E212" s="159"/>
+      <c r="F212" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="G212" s="151"/>
+      <c r="G212" s="159"/>
       <c r="H212" s="29"/>
       <c r="O212" s="25"/>
       <c r="P212" s="29"/>
@@ -6612,14 +6628,14 @@
         <v>138</v>
       </c>
       <c r="C213" s="53"/>
-      <c r="D213" s="153" t="s">
+      <c r="D213" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="E213" s="153"/>
-      <c r="F213" s="152">
+      <c r="E213" s="140"/>
+      <c r="F213" s="160">
         <v>10000000</v>
       </c>
-      <c r="G213" s="152"/>
+      <c r="G213" s="160"/>
       <c r="H213" s="48"/>
       <c r="I213" s="25"/>
       <c r="O213" s="47"/>
@@ -6630,14 +6646,14 @@
         <v>140</v>
       </c>
       <c r="C214" s="53"/>
-      <c r="D214" s="153" t="s">
+      <c r="D214" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="E214" s="153"/>
-      <c r="F214" s="152">
+      <c r="E214" s="140"/>
+      <c r="F214" s="160">
         <v>20000000</v>
       </c>
-      <c r="G214" s="152"/>
+      <c r="G214" s="160"/>
       <c r="H214" s="48"/>
       <c r="O214" s="47"/>
       <c r="P214" s="65"/>
@@ -6706,16 +6722,16 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="141" t="s">
+      <c r="B218" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="C218" s="141"/>
-      <c r="D218" s="141"/>
-      <c r="E218" s="141"/>
-      <c r="F218" s="141"/>
-      <c r="G218" s="141"/>
-      <c r="H218" s="141"/>
-      <c r="I218" s="141"/>
+      <c r="C218" s="143"/>
+      <c r="D218" s="143"/>
+      <c r="E218" s="143"/>
+      <c r="F218" s="143"/>
+      <c r="G218" s="143"/>
+      <c r="H218" s="143"/>
+      <c r="I218" s="143"/>
       <c r="P218" s="65"/>
       <c r="Q218" s="35"/>
       <c r="R218" s="35"/>
@@ -6724,39 +6740,39 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="141"/>
-      <c r="C219" s="141"/>
-      <c r="D219" s="141"/>
-      <c r="E219" s="141"/>
-      <c r="F219" s="141"/>
-      <c r="G219" s="141"/>
-      <c r="H219" s="141"/>
-      <c r="I219" s="141"/>
+      <c r="B219" s="143"/>
+      <c r="C219" s="143"/>
+      <c r="D219" s="143"/>
+      <c r="E219" s="143"/>
+      <c r="F219" s="143"/>
+      <c r="G219" s="143"/>
+      <c r="H219" s="143"/>
+      <c r="I219" s="143"/>
       <c r="P219" s="65"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="141"/>
-      <c r="C220" s="141"/>
-      <c r="D220" s="141"/>
-      <c r="E220" s="141"/>
-      <c r="F220" s="141"/>
-      <c r="G220" s="141"/>
-      <c r="H220" s="141"/>
-      <c r="I220" s="141"/>
+      <c r="B220" s="143"/>
+      <c r="C220" s="143"/>
+      <c r="D220" s="143"/>
+      <c r="E220" s="143"/>
+      <c r="F220" s="143"/>
+      <c r="G220" s="143"/>
+      <c r="H220" s="143"/>
+      <c r="I220" s="143"/>
       <c r="P220" s="65"/>
       <c r="S220" s="34"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="141"/>
-      <c r="C221" s="141"/>
-      <c r="D221" s="141"/>
-      <c r="E221" s="141"/>
-      <c r="F221" s="141"/>
-      <c r="G221" s="141"/>
-      <c r="H221" s="141"/>
-      <c r="I221" s="141"/>
+      <c r="B221" s="143"/>
+      <c r="C221" s="143"/>
+      <c r="D221" s="143"/>
+      <c r="E221" s="143"/>
+      <c r="F221" s="143"/>
+      <c r="G221" s="143"/>
+      <c r="H221" s="143"/>
+      <c r="I221" s="143"/>
       <c r="P221" s="65"/>
       <c r="Q221" s="16"/>
       <c r="R221" s="16"/>
@@ -6802,41 +6818,41 @@
       <c r="P223" s="42"/>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="141" t="s">
+      <c r="B224" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C224" s="141"/>
-      <c r="D224" s="141"/>
-      <c r="E224" s="141"/>
-      <c r="F224" s="141"/>
-      <c r="G224" s="141"/>
-      <c r="H224" s="141"/>
-      <c r="I224" s="141"/>
+      <c r="C224" s="143"/>
+      <c r="D224" s="143"/>
+      <c r="E224" s="143"/>
+      <c r="F224" s="143"/>
+      <c r="G224" s="143"/>
+      <c r="H224" s="143"/>
+      <c r="I224" s="143"/>
     </row>
     <row r="225" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="141"/>
-      <c r="C225" s="141"/>
-      <c r="D225" s="141"/>
-      <c r="E225" s="141"/>
-      <c r="F225" s="141"/>
-      <c r="G225" s="141"/>
-      <c r="H225" s="141"/>
-      <c r="I225" s="141"/>
+      <c r="B225" s="143"/>
+      <c r="C225" s="143"/>
+      <c r="D225" s="143"/>
+      <c r="E225" s="143"/>
+      <c r="F225" s="143"/>
+      <c r="G225" s="143"/>
+      <c r="H225" s="143"/>
+      <c r="I225" s="143"/>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B226" s="145" t="s">
+      <c r="B226" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="C226" s="145"/>
-      <c r="D226" s="139"/>
-      <c r="E226" s="139" t="s">
+      <c r="C226" s="169"/>
+      <c r="D226" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="F226" s="139" t="s">
+      <c r="E226" s="164" t="s">
         <v>299</v>
       </c>
-      <c r="G226" s="139"/>
-      <c r="H226" s="145" t="s">
+      <c r="F226" s="164"/>
+      <c r="G226" s="164"/>
+      <c r="H226" s="169" t="s">
         <v>290</v>
       </c>
       <c r="K226" s="58"/>
@@ -6853,13 +6869,13 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="145"/>
-      <c r="C227" s="145"/>
-      <c r="D227" s="140"/>
-      <c r="E227" s="140"/>
-      <c r="F227" s="140"/>
-      <c r="G227" s="140"/>
-      <c r="H227" s="145"/>
+      <c r="B227" s="169"/>
+      <c r="C227" s="169"/>
+      <c r="D227" s="275"/>
+      <c r="E227" s="165"/>
+      <c r="F227" s="165"/>
+      <c r="G227" s="165"/>
+      <c r="H227" s="169"/>
       <c r="I227" s="25"/>
       <c r="L227" s="111" t="s">
         <v>269</v>
@@ -6875,8 +6891,8 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="143"/>
-      <c r="C228" s="143"/>
+      <c r="B228" s="167"/>
+      <c r="C228" s="167"/>
       <c r="D228" s="131"/>
       <c r="E228" s="131"/>
       <c r="F228" s="131"/>
@@ -6897,10 +6913,10 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="143" t="s">
+      <c r="B229" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="C229" s="143"/>
+      <c r="C229" s="167"/>
       <c r="D229" s="133"/>
       <c r="E229" s="131"/>
       <c r="F229" s="131"/>
@@ -6921,14 +6937,14 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="144" t="s">
+      <c r="B230" s="168" t="s">
         <v>292</v>
       </c>
-      <c r="C230" s="144"/>
-      <c r="D230" s="144"/>
-      <c r="E230" s="144"/>
-      <c r="F230" s="144"/>
-      <c r="G230" s="144"/>
+      <c r="C230" s="168"/>
+      <c r="D230" s="168"/>
+      <c r="E230" s="168"/>
+      <c r="F230" s="168"/>
+      <c r="G230" s="168"/>
       <c r="H230" s="132"/>
       <c r="I230" s="25"/>
       <c r="L230" s="106"/>
@@ -6938,14 +6954,14 @@
       <c r="P230" s="107"/>
     </row>
     <row r="231" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="144" t="s">
+      <c r="B231" s="168" t="s">
         <v>293</v>
       </c>
-      <c r="C231" s="144"/>
-      <c r="D231" s="144"/>
-      <c r="E231" s="144"/>
-      <c r="F231" s="144"/>
-      <c r="G231" s="144"/>
+      <c r="C231" s="168"/>
+      <c r="D231" s="168"/>
+      <c r="E231" s="168"/>
+      <c r="F231" s="168"/>
+      <c r="G231" s="168"/>
       <c r="H231" s="132"/>
       <c r="I231" s="25"/>
       <c r="L231" s="106"/>
@@ -7013,16 +7029,16 @@
       <c r="P234" s="130"/>
     </row>
     <row r="235" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="141" t="s">
+      <c r="B235" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="C235" s="141"/>
-      <c r="D235" s="141"/>
-      <c r="E235" s="141"/>
-      <c r="F235" s="141"/>
-      <c r="G235" s="141"/>
-      <c r="H235" s="141"/>
-      <c r="I235" s="141"/>
+      <c r="C235" s="143"/>
+      <c r="D235" s="143"/>
+      <c r="E235" s="143"/>
+      <c r="F235" s="143"/>
+      <c r="G235" s="143"/>
+      <c r="H235" s="143"/>
+      <c r="I235" s="143"/>
       <c r="L235" s="58"/>
       <c r="M235" s="58"/>
       <c r="N235" s="58"/>
@@ -7031,14 +7047,14 @@
     </row>
     <row r="236" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="46"/>
-      <c r="B236" s="141"/>
-      <c r="C236" s="141"/>
-      <c r="D236" s="141"/>
-      <c r="E236" s="141"/>
-      <c r="F236" s="141"/>
-      <c r="G236" s="141"/>
-      <c r="H236" s="141"/>
-      <c r="I236" s="141"/>
+      <c r="B236" s="143"/>
+      <c r="C236" s="143"/>
+      <c r="D236" s="143"/>
+      <c r="E236" s="143"/>
+      <c r="F236" s="143"/>
+      <c r="G236" s="143"/>
+      <c r="H236" s="143"/>
+      <c r="I236" s="143"/>
       <c r="L236" s="58"/>
       <c r="M236" s="58"/>
       <c r="N236" s="58"/>
@@ -7377,11 +7393,11 @@
       <c r="B262" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F262" s="142">
+      <c r="F262" s="166">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="G262" s="142"/>
+        <v>45306</v>
+      </c>
+      <c r="G262" s="166"/>
       <c r="P262" s="65"/>
     </row>
     <row r="263" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -7397,374 +7413,374 @@
       <c r="A264" s="28">
         <v>1</v>
       </c>
-      <c r="B264" s="173" t="s">
+      <c r="B264" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="C264" s="173"/>
-      <c r="D264" s="173"/>
-      <c r="E264" s="173"/>
-      <c r="F264" s="173"/>
-      <c r="G264" s="173"/>
-      <c r="H264" s="173"/>
-      <c r="I264" s="173"/>
+      <c r="C264" s="148"/>
+      <c r="D264" s="148"/>
+      <c r="E264" s="148"/>
+      <c r="F264" s="148"/>
+      <c r="G264" s="148"/>
+      <c r="H264" s="148"/>
+      <c r="I264" s="148"/>
     </row>
     <row r="265" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>2</v>
       </c>
-      <c r="B265" s="173" t="s">
+      <c r="B265" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="C265" s="173"/>
-      <c r="D265" s="173"/>
-      <c r="E265" s="173"/>
-      <c r="F265" s="173"/>
-      <c r="G265" s="173"/>
-      <c r="H265" s="173"/>
-      <c r="I265" s="173"/>
+      <c r="C265" s="148"/>
+      <c r="D265" s="148"/>
+      <c r="E265" s="148"/>
+      <c r="F265" s="148"/>
+      <c r="G265" s="148"/>
+      <c r="H265" s="148"/>
+      <c r="I265" s="148"/>
     </row>
     <row r="266" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>3</v>
       </c>
-      <c r="B266" s="173" t="s">
+      <c r="B266" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="C266" s="173"/>
-      <c r="D266" s="173"/>
-      <c r="E266" s="173"/>
-      <c r="F266" s="173"/>
-      <c r="G266" s="173"/>
-      <c r="H266" s="173"/>
-      <c r="I266" s="173"/>
+      <c r="C266" s="148"/>
+      <c r="D266" s="148"/>
+      <c r="E266" s="148"/>
+      <c r="F266" s="148"/>
+      <c r="G266" s="148"/>
+      <c r="H266" s="148"/>
+      <c r="I266" s="148"/>
     </row>
     <row r="267" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>4</v>
       </c>
-      <c r="B267" s="173" t="s">
+      <c r="B267" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="C267" s="173"/>
-      <c r="D267" s="173"/>
-      <c r="E267" s="173"/>
-      <c r="F267" s="173"/>
-      <c r="G267" s="173"/>
-      <c r="H267" s="173"/>
-      <c r="I267" s="173"/>
+      <c r="C267" s="148"/>
+      <c r="D267" s="148"/>
+      <c r="E267" s="148"/>
+      <c r="F267" s="148"/>
+      <c r="G267" s="148"/>
+      <c r="H267" s="148"/>
+      <c r="I267" s="148"/>
     </row>
     <row r="268" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>5</v>
       </c>
-      <c r="B268" s="173" t="s">
+      <c r="B268" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="C268" s="173"/>
-      <c r="D268" s="173"/>
-      <c r="E268" s="173"/>
-      <c r="F268" s="173"/>
-      <c r="G268" s="173"/>
-      <c r="H268" s="173"/>
-      <c r="I268" s="173"/>
+      <c r="C268" s="148"/>
+      <c r="D268" s="148"/>
+      <c r="E268" s="148"/>
+      <c r="F268" s="148"/>
+      <c r="G268" s="148"/>
+      <c r="H268" s="148"/>
+      <c r="I268" s="148"/>
     </row>
     <row r="269" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
-      <c r="B269" s="173" t="s">
+      <c r="B269" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="173"/>
-      <c r="D269" s="173"/>
-      <c r="E269" s="173"/>
-      <c r="F269" s="173"/>
-      <c r="G269" s="173"/>
-      <c r="H269" s="173"/>
-      <c r="I269" s="173"/>
+      <c r="C269" s="148"/>
+      <c r="D269" s="148"/>
+      <c r="E269" s="148"/>
+      <c r="F269" s="148"/>
+      <c r="G269" s="148"/>
+      <c r="H269" s="148"/>
+      <c r="I269" s="148"/>
     </row>
     <row r="270" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="173" t="s">
+      <c r="B270" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="C270" s="173"/>
-      <c r="D270" s="173"/>
-      <c r="E270" s="173"/>
-      <c r="F270" s="173"/>
-      <c r="G270" s="173"/>
-      <c r="H270" s="173"/>
-      <c r="I270" s="173"/>
+      <c r="C270" s="148"/>
+      <c r="D270" s="148"/>
+      <c r="E270" s="148"/>
+      <c r="F270" s="148"/>
+      <c r="G270" s="148"/>
+      <c r="H270" s="148"/>
+      <c r="I270" s="148"/>
     </row>
     <row r="271" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
-      <c r="B271" s="173" t="s">
+      <c r="B271" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="C271" s="173"/>
-      <c r="D271" s="173"/>
-      <c r="E271" s="173"/>
-      <c r="F271" s="173"/>
-      <c r="G271" s="173"/>
-      <c r="H271" s="173"/>
-      <c r="I271" s="173"/>
+      <c r="C271" s="148"/>
+      <c r="D271" s="148"/>
+      <c r="E271" s="148"/>
+      <c r="F271" s="148"/>
+      <c r="G271" s="148"/>
+      <c r="H271" s="148"/>
+      <c r="I271" s="148"/>
     </row>
     <row r="272" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>6</v>
       </c>
-      <c r="B272" s="173" t="s">
+      <c r="B272" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="C272" s="173"/>
-      <c r="D272" s="173"/>
-      <c r="E272" s="173"/>
-      <c r="F272" s="173"/>
-      <c r="G272" s="173"/>
-      <c r="H272" s="173"/>
-      <c r="I272" s="173"/>
+      <c r="C272" s="148"/>
+      <c r="D272" s="148"/>
+      <c r="E272" s="148"/>
+      <c r="F272" s="148"/>
+      <c r="G272" s="148"/>
+      <c r="H272" s="148"/>
+      <c r="I272" s="148"/>
     </row>
     <row r="273" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="173" t="s">
+      <c r="B273" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="C273" s="173"/>
-      <c r="D273" s="173"/>
-      <c r="E273" s="173"/>
-      <c r="F273" s="173"/>
-      <c r="G273" s="173"/>
-      <c r="H273" s="173"/>
-      <c r="I273" s="173"/>
+      <c r="C273" s="148"/>
+      <c r="D273" s="148"/>
+      <c r="E273" s="148"/>
+      <c r="F273" s="148"/>
+      <c r="G273" s="148"/>
+      <c r="H273" s="148"/>
+      <c r="I273" s="148"/>
     </row>
     <row r="274" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
-      <c r="B274" s="173" t="s">
+      <c r="B274" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="C274" s="173"/>
-      <c r="D274" s="173"/>
-      <c r="E274" s="173"/>
-      <c r="F274" s="173"/>
-      <c r="G274" s="173"/>
-      <c r="H274" s="173"/>
-      <c r="I274" s="173"/>
+      <c r="C274" s="148"/>
+      <c r="D274" s="148"/>
+      <c r="E274" s="148"/>
+      <c r="F274" s="148"/>
+      <c r="G274" s="148"/>
+      <c r="H274" s="148"/>
+      <c r="I274" s="148"/>
     </row>
     <row r="275" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>7</v>
       </c>
-      <c r="B275" s="173" t="s">
+      <c r="B275" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="C275" s="173"/>
-      <c r="D275" s="173"/>
-      <c r="E275" s="173"/>
-      <c r="F275" s="173"/>
-      <c r="G275" s="173"/>
-      <c r="H275" s="173"/>
-      <c r="I275" s="173"/>
+      <c r="C275" s="148"/>
+      <c r="D275" s="148"/>
+      <c r="E275" s="148"/>
+      <c r="F275" s="148"/>
+      <c r="G275" s="148"/>
+      <c r="H275" s="148"/>
+      <c r="I275" s="148"/>
     </row>
     <row r="276" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>8</v>
       </c>
-      <c r="B276" s="173" t="s">
+      <c r="B276" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="C276" s="173"/>
-      <c r="D276" s="173"/>
-      <c r="E276" s="173"/>
-      <c r="F276" s="173"/>
-      <c r="G276" s="173"/>
-      <c r="H276" s="173"/>
-      <c r="I276" s="173"/>
+      <c r="C276" s="148"/>
+      <c r="D276" s="148"/>
+      <c r="E276" s="148"/>
+      <c r="F276" s="148"/>
+      <c r="G276" s="148"/>
+      <c r="H276" s="148"/>
+      <c r="I276" s="148"/>
     </row>
     <row r="277" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="28"/>
-      <c r="B277" s="173" t="s">
+      <c r="B277" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="C277" s="173"/>
-      <c r="D277" s="173"/>
-      <c r="E277" s="173"/>
-      <c r="F277" s="173"/>
-      <c r="G277" s="173"/>
-      <c r="H277" s="173"/>
-      <c r="I277" s="173"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="148"/>
+      <c r="E277" s="148"/>
+      <c r="F277" s="148"/>
+      <c r="G277" s="148"/>
+      <c r="H277" s="148"/>
+      <c r="I277" s="148"/>
     </row>
     <row r="278" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28"/>
-      <c r="B278" s="173" t="s">
+      <c r="B278" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="C278" s="173"/>
-      <c r="D278" s="173"/>
-      <c r="E278" s="173"/>
-      <c r="F278" s="173"/>
-      <c r="G278" s="173"/>
-      <c r="H278" s="173"/>
-      <c r="I278" s="173"/>
+      <c r="C278" s="148"/>
+      <c r="D278" s="148"/>
+      <c r="E278" s="148"/>
+      <c r="F278" s="148"/>
+      <c r="G278" s="148"/>
+      <c r="H278" s="148"/>
+      <c r="I278" s="148"/>
     </row>
     <row r="279" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28"/>
-      <c r="B279" s="173" t="s">
+      <c r="B279" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="C279" s="173"/>
-      <c r="D279" s="173"/>
-      <c r="E279" s="173"/>
-      <c r="F279" s="173"/>
-      <c r="G279" s="173"/>
-      <c r="H279" s="173"/>
-      <c r="I279" s="173"/>
+      <c r="C279" s="148"/>
+      <c r="D279" s="148"/>
+      <c r="E279" s="148"/>
+      <c r="F279" s="148"/>
+      <c r="G279" s="148"/>
+      <c r="H279" s="148"/>
+      <c r="I279" s="148"/>
     </row>
     <row r="280" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="28"/>
-      <c r="B280" s="173" t="s">
+      <c r="B280" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="C280" s="173"/>
-      <c r="D280" s="173"/>
-      <c r="E280" s="173"/>
-      <c r="F280" s="173"/>
-      <c r="G280" s="173"/>
-      <c r="H280" s="173"/>
-      <c r="I280" s="173"/>
+      <c r="C280" s="148"/>
+      <c r="D280" s="148"/>
+      <c r="E280" s="148"/>
+      <c r="F280" s="148"/>
+      <c r="G280" s="148"/>
+      <c r="H280" s="148"/>
+      <c r="I280" s="148"/>
     </row>
     <row r="281" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="28"/>
-      <c r="B281" s="173" t="s">
+      <c r="B281" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="C281" s="173"/>
-      <c r="D281" s="173"/>
-      <c r="E281" s="173"/>
-      <c r="F281" s="173"/>
-      <c r="G281" s="173"/>
-      <c r="H281" s="173"/>
-      <c r="I281" s="173"/>
+      <c r="C281" s="148"/>
+      <c r="D281" s="148"/>
+      <c r="E281" s="148"/>
+      <c r="F281" s="148"/>
+      <c r="G281" s="148"/>
+      <c r="H281" s="148"/>
+      <c r="I281" s="148"/>
     </row>
     <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28"/>
-      <c r="B282" s="173" t="s">
+      <c r="B282" s="148" t="s">
         <v>179</v>
       </c>
-      <c r="C282" s="173"/>
-      <c r="D282" s="173"/>
-      <c r="E282" s="173"/>
-      <c r="F282" s="173"/>
-      <c r="G282" s="173"/>
-      <c r="H282" s="173"/>
-      <c r="I282" s="173"/>
+      <c r="C282" s="148"/>
+      <c r="D282" s="148"/>
+      <c r="E282" s="148"/>
+      <c r="F282" s="148"/>
+      <c r="G282" s="148"/>
+      <c r="H282" s="148"/>
+      <c r="I282" s="148"/>
     </row>
     <row r="283" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>9</v>
       </c>
-      <c r="B283" s="173" t="s">
+      <c r="B283" s="148" t="s">
         <v>180</v>
       </c>
-      <c r="C283" s="173"/>
-      <c r="D283" s="173"/>
-      <c r="E283" s="173"/>
-      <c r="F283" s="173"/>
-      <c r="G283" s="173"/>
-      <c r="H283" s="173"/>
-      <c r="I283" s="173"/>
+      <c r="C283" s="148"/>
+      <c r="D283" s="148"/>
+      <c r="E283" s="148"/>
+      <c r="F283" s="148"/>
+      <c r="G283" s="148"/>
+      <c r="H283" s="148"/>
+      <c r="I283" s="148"/>
     </row>
     <row r="284" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>10</v>
       </c>
-      <c r="B284" s="173" t="s">
+      <c r="B284" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="C284" s="173"/>
-      <c r="D284" s="173"/>
-      <c r="E284" s="173"/>
-      <c r="F284" s="173"/>
-      <c r="G284" s="173"/>
-      <c r="H284" s="173"/>
-      <c r="I284" s="173"/>
+      <c r="C284" s="148"/>
+      <c r="D284" s="148"/>
+      <c r="E284" s="148"/>
+      <c r="F284" s="148"/>
+      <c r="G284" s="148"/>
+      <c r="H284" s="148"/>
+      <c r="I284" s="148"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28"/>
-      <c r="B285" s="173" t="s">
+      <c r="B285" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="C285" s="173"/>
-      <c r="D285" s="173"/>
-      <c r="E285" s="173"/>
-      <c r="F285" s="173"/>
-      <c r="G285" s="173"/>
-      <c r="H285" s="173"/>
-      <c r="I285" s="173"/>
+      <c r="C285" s="148"/>
+      <c r="D285" s="148"/>
+      <c r="E285" s="148"/>
+      <c r="F285" s="148"/>
+      <c r="G285" s="148"/>
+      <c r="H285" s="148"/>
+      <c r="I285" s="148"/>
     </row>
     <row r="286" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="28"/>
-      <c r="B286" s="173" t="s">
+      <c r="B286" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="173"/>
-      <c r="D286" s="173"/>
-      <c r="E286" s="173"/>
-      <c r="F286" s="173"/>
-      <c r="G286" s="173"/>
-      <c r="H286" s="173"/>
-      <c r="I286" s="173"/>
+      <c r="C286" s="148"/>
+      <c r="D286" s="148"/>
+      <c r="E286" s="148"/>
+      <c r="F286" s="148"/>
+      <c r="G286" s="148"/>
+      <c r="H286" s="148"/>
+      <c r="I286" s="148"/>
     </row>
     <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="28"/>
-      <c r="B287" s="173" t="s">
+      <c r="B287" s="148" t="s">
         <v>184</v>
       </c>
-      <c r="C287" s="173"/>
-      <c r="D287" s="173"/>
-      <c r="E287" s="173"/>
-      <c r="F287" s="173"/>
-      <c r="G287" s="173"/>
-      <c r="H287" s="173"/>
-      <c r="I287" s="173"/>
+      <c r="C287" s="148"/>
+      <c r="D287" s="148"/>
+      <c r="E287" s="148"/>
+      <c r="F287" s="148"/>
+      <c r="G287" s="148"/>
+      <c r="H287" s="148"/>
+      <c r="I287" s="148"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28"/>
-      <c r="B288" s="173" t="s">
+      <c r="B288" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="C288" s="173"/>
-      <c r="D288" s="173"/>
-      <c r="E288" s="173"/>
-      <c r="F288" s="173"/>
-      <c r="G288" s="173"/>
-      <c r="H288" s="173"/>
-      <c r="I288" s="173"/>
+      <c r="C288" s="148"/>
+      <c r="D288" s="148"/>
+      <c r="E288" s="148"/>
+      <c r="F288" s="148"/>
+      <c r="G288" s="148"/>
+      <c r="H288" s="148"/>
+      <c r="I288" s="148"/>
     </row>
     <row r="289" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="28">
         <v>11</v>
       </c>
-      <c r="B289" s="173" t="s">
+      <c r="B289" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="173"/>
-      <c r="D289" s="173"/>
-      <c r="E289" s="173"/>
-      <c r="F289" s="173"/>
-      <c r="G289" s="173"/>
-      <c r="H289" s="173"/>
-      <c r="I289" s="173"/>
+      <c r="C289" s="148"/>
+      <c r="D289" s="148"/>
+      <c r="E289" s="148"/>
+      <c r="F289" s="148"/>
+      <c r="G289" s="148"/>
+      <c r="H289" s="148"/>
+      <c r="I289" s="148"/>
     </row>
     <row r="290" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="28"/>
-      <c r="B290" s="173" t="s">
+      <c r="B290" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="C290" s="173"/>
-      <c r="D290" s="173"/>
-      <c r="E290" s="173"/>
-      <c r="F290" s="173"/>
-      <c r="G290" s="173"/>
-      <c r="H290" s="173"/>
-      <c r="I290" s="173"/>
+      <c r="C290" s="148"/>
+      <c r="D290" s="148"/>
+      <c r="E290" s="148"/>
+      <c r="F290" s="148"/>
+      <c r="G290" s="148"/>
+      <c r="H290" s="148"/>
+      <c r="I290" s="148"/>
     </row>
     <row r="291" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28"/>
@@ -7785,236 +7801,236 @@
     </row>
     <row r="292" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="28"/>
-      <c r="B292" s="173" t="s">
+      <c r="B292" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="173"/>
-      <c r="D292" s="173"/>
-      <c r="E292" s="173"/>
-      <c r="F292" s="173"/>
-      <c r="G292" s="173"/>
-      <c r="H292" s="173"/>
-      <c r="I292" s="173"/>
+      <c r="C292" s="148"/>
+      <c r="D292" s="148"/>
+      <c r="E292" s="148"/>
+      <c r="F292" s="148"/>
+      <c r="G292" s="148"/>
+      <c r="H292" s="148"/>
+      <c r="I292" s="148"/>
     </row>
     <row r="293" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="28">
         <v>12</v>
       </c>
-      <c r="B293" s="173" t="s">
+      <c r="B293" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C293" s="173"/>
-      <c r="D293" s="173"/>
-      <c r="E293" s="173"/>
-      <c r="F293" s="173"/>
-      <c r="G293" s="173"/>
-      <c r="H293" s="173"/>
-      <c r="I293" s="173"/>
+      <c r="C293" s="148"/>
+      <c r="D293" s="148"/>
+      <c r="E293" s="148"/>
+      <c r="F293" s="148"/>
+      <c r="G293" s="148"/>
+      <c r="H293" s="148"/>
+      <c r="I293" s="148"/>
     </row>
     <row r="294" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
-      <c r="B294" s="173" t="s">
+      <c r="B294" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="C294" s="173"/>
-      <c r="D294" s="173"/>
-      <c r="E294" s="173"/>
-      <c r="F294" s="173"/>
-      <c r="G294" s="173"/>
-      <c r="H294" s="173"/>
-      <c r="I294" s="173"/>
+      <c r="C294" s="148"/>
+      <c r="D294" s="148"/>
+      <c r="E294" s="148"/>
+      <c r="F294" s="148"/>
+      <c r="G294" s="148"/>
+      <c r="H294" s="148"/>
+      <c r="I294" s="148"/>
     </row>
     <row r="295" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="28"/>
-      <c r="B295" s="173" t="s">
+      <c r="B295" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="C295" s="173"/>
-      <c r="D295" s="173"/>
-      <c r="E295" s="173"/>
-      <c r="F295" s="173"/>
-      <c r="G295" s="173"/>
-      <c r="H295" s="173"/>
-      <c r="I295" s="173"/>
+      <c r="C295" s="148"/>
+      <c r="D295" s="148"/>
+      <c r="E295" s="148"/>
+      <c r="F295" s="148"/>
+      <c r="G295" s="148"/>
+      <c r="H295" s="148"/>
+      <c r="I295" s="148"/>
     </row>
     <row r="296" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="28"/>
-      <c r="B296" s="173" t="s">
+      <c r="B296" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="C296" s="173"/>
-      <c r="D296" s="173"/>
-      <c r="E296" s="173"/>
-      <c r="F296" s="173"/>
-      <c r="G296" s="173"/>
-      <c r="H296" s="173"/>
-      <c r="I296" s="173"/>
+      <c r="C296" s="148"/>
+      <c r="D296" s="148"/>
+      <c r="E296" s="148"/>
+      <c r="F296" s="148"/>
+      <c r="G296" s="148"/>
+      <c r="H296" s="148"/>
+      <c r="I296" s="148"/>
     </row>
     <row r="297" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="28"/>
-      <c r="B297" s="173" t="s">
+      <c r="B297" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="C297" s="173"/>
-      <c r="D297" s="173"/>
-      <c r="E297" s="173"/>
-      <c r="F297" s="173"/>
-      <c r="G297" s="173"/>
-      <c r="H297" s="173"/>
-      <c r="I297" s="173"/>
+      <c r="C297" s="148"/>
+      <c r="D297" s="148"/>
+      <c r="E297" s="148"/>
+      <c r="F297" s="148"/>
+      <c r="G297" s="148"/>
+      <c r="H297" s="148"/>
+      <c r="I297" s="148"/>
     </row>
     <row r="298" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="28">
         <v>13</v>
       </c>
-      <c r="B298" s="173" t="s">
+      <c r="B298" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="C298" s="173"/>
-      <c r="D298" s="173"/>
-      <c r="E298" s="173"/>
-      <c r="F298" s="173"/>
-      <c r="G298" s="173"/>
-      <c r="H298" s="173"/>
-      <c r="I298" s="173"/>
+      <c r="C298" s="148"/>
+      <c r="D298" s="148"/>
+      <c r="E298" s="148"/>
+      <c r="F298" s="148"/>
+      <c r="G298" s="148"/>
+      <c r="H298" s="148"/>
+      <c r="I298" s="148"/>
     </row>
     <row r="299" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="28"/>
-      <c r="B299" s="173" t="s">
+      <c r="B299" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="173"/>
-      <c r="D299" s="173"/>
-      <c r="E299" s="173"/>
-      <c r="F299" s="173"/>
-      <c r="G299" s="173"/>
-      <c r="H299" s="173"/>
-      <c r="I299" s="173"/>
+      <c r="C299" s="148"/>
+      <c r="D299" s="148"/>
+      <c r="E299" s="148"/>
+      <c r="F299" s="148"/>
+      <c r="G299" s="148"/>
+      <c r="H299" s="148"/>
+      <c r="I299" s="148"/>
     </row>
     <row r="300" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="28"/>
-      <c r="B300" s="173" t="s">
+      <c r="B300" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="C300" s="173"/>
-      <c r="D300" s="173"/>
-      <c r="E300" s="173"/>
-      <c r="F300" s="173"/>
-      <c r="G300" s="173"/>
-      <c r="H300" s="173"/>
-      <c r="I300" s="173"/>
+      <c r="C300" s="148"/>
+      <c r="D300" s="148"/>
+      <c r="E300" s="148"/>
+      <c r="F300" s="148"/>
+      <c r="G300" s="148"/>
+      <c r="H300" s="148"/>
+      <c r="I300" s="148"/>
     </row>
     <row r="301" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="28">
         <v>14</v>
       </c>
-      <c r="B301" s="173" t="s">
+      <c r="B301" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="C301" s="173"/>
-      <c r="D301" s="173"/>
-      <c r="E301" s="173"/>
-      <c r="F301" s="173"/>
-      <c r="G301" s="173"/>
-      <c r="H301" s="173"/>
-      <c r="I301" s="173"/>
+      <c r="C301" s="148"/>
+      <c r="D301" s="148"/>
+      <c r="E301" s="148"/>
+      <c r="F301" s="148"/>
+      <c r="G301" s="148"/>
+      <c r="H301" s="148"/>
+      <c r="I301" s="148"/>
     </row>
     <row r="302" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="28"/>
-      <c r="B302" s="173" t="s">
+      <c r="B302" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="C302" s="173"/>
-      <c r="D302" s="173"/>
-      <c r="E302" s="173"/>
-      <c r="F302" s="173"/>
-      <c r="G302" s="173"/>
-      <c r="H302" s="173"/>
-      <c r="I302" s="173"/>
+      <c r="C302" s="148"/>
+      <c r="D302" s="148"/>
+      <c r="E302" s="148"/>
+      <c r="F302" s="148"/>
+      <c r="G302" s="148"/>
+      <c r="H302" s="148"/>
+      <c r="I302" s="148"/>
     </row>
     <row r="303" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="28"/>
-      <c r="B303" s="173" t="s">
+      <c r="B303" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="C303" s="173"/>
-      <c r="D303" s="173"/>
-      <c r="E303" s="173"/>
-      <c r="F303" s="173"/>
-      <c r="G303" s="173"/>
-      <c r="H303" s="173"/>
-      <c r="I303" s="173"/>
+      <c r="C303" s="148"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="148"/>
+      <c r="F303" s="148"/>
+      <c r="G303" s="148"/>
+      <c r="H303" s="148"/>
+      <c r="I303" s="148"/>
     </row>
     <row r="304" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="28"/>
-      <c r="B304" s="173" t="s">
+      <c r="B304" s="148" t="s">
         <v>197</v>
       </c>
-      <c r="C304" s="173"/>
-      <c r="D304" s="173"/>
-      <c r="E304" s="173"/>
-      <c r="F304" s="173"/>
-      <c r="G304" s="173"/>
-      <c r="H304" s="173"/>
-      <c r="I304" s="173"/>
+      <c r="C304" s="148"/>
+      <c r="D304" s="148"/>
+      <c r="E304" s="148"/>
+      <c r="F304" s="148"/>
+      <c r="G304" s="148"/>
+      <c r="H304" s="148"/>
+      <c r="I304" s="148"/>
     </row>
     <row r="305" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="28"/>
-      <c r="B305" s="173" t="s">
+      <c r="B305" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="C305" s="173"/>
-      <c r="D305" s="173"/>
-      <c r="E305" s="173"/>
-      <c r="F305" s="173"/>
-      <c r="G305" s="173"/>
-      <c r="H305" s="173"/>
-      <c r="I305" s="173"/>
+      <c r="C305" s="148"/>
+      <c r="D305" s="148"/>
+      <c r="E305" s="148"/>
+      <c r="F305" s="148"/>
+      <c r="G305" s="148"/>
+      <c r="H305" s="148"/>
+      <c r="I305" s="148"/>
     </row>
     <row r="306" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="28">
         <v>15</v>
       </c>
-      <c r="B306" s="173" t="s">
+      <c r="B306" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="C306" s="173"/>
-      <c r="D306" s="173"/>
-      <c r="E306" s="173"/>
-      <c r="F306" s="173"/>
-      <c r="G306" s="173"/>
-      <c r="H306" s="173"/>
-      <c r="I306" s="173"/>
+      <c r="C306" s="148"/>
+      <c r="D306" s="148"/>
+      <c r="E306" s="148"/>
+      <c r="F306" s="148"/>
+      <c r="G306" s="148"/>
+      <c r="H306" s="148"/>
+      <c r="I306" s="148"/>
     </row>
     <row r="307" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="28">
         <v>16</v>
       </c>
-      <c r="B307" s="173" t="s">
+      <c r="B307" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="C307" s="173"/>
-      <c r="D307" s="173"/>
-      <c r="E307" s="173"/>
-      <c r="F307" s="173"/>
-      <c r="G307" s="173"/>
-      <c r="H307" s="173"/>
-      <c r="I307" s="173"/>
+      <c r="C307" s="148"/>
+      <c r="D307" s="148"/>
+      <c r="E307" s="148"/>
+      <c r="F307" s="148"/>
+      <c r="G307" s="148"/>
+      <c r="H307" s="148"/>
+      <c r="I307" s="148"/>
     </row>
     <row r="308" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="28">
         <v>17</v>
       </c>
-      <c r="B308" s="173" t="s">
+      <c r="B308" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="C308" s="173"/>
-      <c r="D308" s="173"/>
-      <c r="E308" s="173"/>
-      <c r="F308" s="173"/>
-      <c r="G308" s="173"/>
-      <c r="H308" s="173"/>
-      <c r="I308" s="173"/>
+      <c r="C308" s="148"/>
+      <c r="D308" s="148"/>
+      <c r="E308" s="148"/>
+      <c r="F308" s="148"/>
+      <c r="G308" s="148"/>
+      <c r="H308" s="148"/>
+      <c r="I308" s="148"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="51"/>
@@ -8032,69 +8048,33 @@
       <c r="A313" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B179:I182"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B185:I186"/>
-    <mergeCell ref="B264:I264"/>
-    <mergeCell ref="B265:I265"/>
-    <mergeCell ref="B266:I266"/>
-    <mergeCell ref="B267:I267"/>
-    <mergeCell ref="B268:I268"/>
-    <mergeCell ref="B282:I282"/>
-    <mergeCell ref="B269:I269"/>
-    <mergeCell ref="B270:I270"/>
-    <mergeCell ref="B271:I271"/>
-    <mergeCell ref="B272:I272"/>
-    <mergeCell ref="B278:I278"/>
-    <mergeCell ref="B273:I273"/>
-    <mergeCell ref="B274:I274"/>
-    <mergeCell ref="B275:I275"/>
-    <mergeCell ref="B276:I276"/>
-    <mergeCell ref="B277:I277"/>
-    <mergeCell ref="B279:I279"/>
-    <mergeCell ref="B280:I280"/>
-    <mergeCell ref="B281:I281"/>
-    <mergeCell ref="B296:I296"/>
-    <mergeCell ref="B283:I283"/>
-    <mergeCell ref="B284:I284"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:I286"/>
-    <mergeCell ref="B287:I287"/>
-    <mergeCell ref="B288:I288"/>
-    <mergeCell ref="B289:I289"/>
-    <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B292:I292"/>
-    <mergeCell ref="B293:I293"/>
-    <mergeCell ref="B294:I294"/>
-    <mergeCell ref="B295:I295"/>
-    <mergeCell ref="B308:I308"/>
-    <mergeCell ref="B297:I297"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B299:I299"/>
-    <mergeCell ref="B300:I300"/>
-    <mergeCell ref="B301:I301"/>
-    <mergeCell ref="B302:I302"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B304:I304"/>
-    <mergeCell ref="B305:I305"/>
-    <mergeCell ref="B306:I306"/>
-    <mergeCell ref="B307:I307"/>
+  <mergeCells count="110">
+    <mergeCell ref="F226:F227"/>
+    <mergeCell ref="B235:I236"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B226:C227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="G226:G227"/>
+    <mergeCell ref="H226:H227"/>
+    <mergeCell ref="B218:I221"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B224:I225"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="B117:C119"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="B120:C124"/>
+    <mergeCell ref="D120:I120"/>
     <mergeCell ref="M56:T59"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="M146:T146"/>
@@ -8117,42 +8097,68 @@
     <mergeCell ref="D122:I122"/>
     <mergeCell ref="D123:I123"/>
     <mergeCell ref="D124:I124"/>
-    <mergeCell ref="B218:I221"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="B224:I225"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="B114:C116"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="B117:C119"/>
-    <mergeCell ref="B125:C129"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="F226:F227"/>
-    <mergeCell ref="B235:I236"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:G230"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B226:C227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="G226:G227"/>
-    <mergeCell ref="H226:H227"/>
+    <mergeCell ref="B308:I308"/>
+    <mergeCell ref="B297:I297"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:I300"/>
+    <mergeCell ref="B301:I301"/>
+    <mergeCell ref="B302:I302"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B304:I304"/>
+    <mergeCell ref="B305:I305"/>
+    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="B307:I307"/>
+    <mergeCell ref="B296:I296"/>
+    <mergeCell ref="B283:I283"/>
+    <mergeCell ref="B284:I284"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B286:I286"/>
+    <mergeCell ref="B287:I287"/>
+    <mergeCell ref="B288:I288"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:I290"/>
+    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B293:I293"/>
+    <mergeCell ref="B294:I294"/>
+    <mergeCell ref="B295:I295"/>
+    <mergeCell ref="B264:I264"/>
+    <mergeCell ref="B265:I265"/>
+    <mergeCell ref="B266:I266"/>
+    <mergeCell ref="B267:I267"/>
+    <mergeCell ref="B268:I268"/>
+    <mergeCell ref="B282:I282"/>
+    <mergeCell ref="B269:I269"/>
+    <mergeCell ref="B270:I270"/>
+    <mergeCell ref="B271:I271"/>
+    <mergeCell ref="B272:I272"/>
+    <mergeCell ref="B278:I278"/>
+    <mergeCell ref="B273:I273"/>
+    <mergeCell ref="B274:I274"/>
+    <mergeCell ref="B275:I275"/>
+    <mergeCell ref="B276:I276"/>
+    <mergeCell ref="B277:I277"/>
+    <mergeCell ref="B279:I279"/>
+    <mergeCell ref="B280:I280"/>
+    <mergeCell ref="B281:I281"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B179:I182"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B185:I186"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -8232,21 +8238,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8262,24 +8268,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8302,46 +8308,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="184" t="s">
+      <c r="F15" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="F16" s="188" t="s">
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="F16" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8355,43 +8361,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="216"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="215"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8410,17 +8416,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8431,257 +8437,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180" t="s">
+      <c r="C28" s="173"/>
+      <c r="D28" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="181" t="s">
+      <c r="C30" s="170"/>
+      <c r="D30" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="181" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="181" t="s">
+      <c r="C36" s="170"/>
+      <c r="D36" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="190"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="182"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="190"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="181" t="s">
+      <c r="C39" s="170"/>
+      <c r="D39" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="210"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="190"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="192"/>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
+      <c r="A45" s="172"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="193" t="s">
+      <c r="C47" s="175"/>
+      <c r="D47" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="198"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="179"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="195"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="201"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="180"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="208"/>
-      <c r="D49" s="211" t="s">
+      <c r="C49" s="189"/>
+      <c r="D49" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="212"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="212"/>
-      <c r="H49" s="213"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="194"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="209"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="214"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="215"/>
-      <c r="G50" s="215"/>
-      <c r="H50" s="216"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="208"/>
-      <c r="D51" s="217" t="s">
+      <c r="C51" s="189"/>
+      <c r="D51" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="218"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="218"/>
-      <c r="H51" s="219"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
+      <c r="H51" s="200"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="226"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="220"/>
-      <c r="E52" s="221"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="221"/>
-      <c r="H52" s="222"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="203"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="209"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="224"/>
-      <c r="F53" s="224"/>
-      <c r="G53" s="224"/>
-      <c r="H53" s="225"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="205"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="206"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="205" t="s">
+      <c r="B54" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="206"/>
-      <c r="D54" s="202" t="s">
+      <c r="C54" s="187"/>
+      <c r="D54" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="203"/>
-      <c r="H54" s="204"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="185"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -8719,90 +8725,110 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="180" t="s">
+      <c r="B61" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180" t="s">
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="180"/>
-      <c r="H61" s="180"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="180"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="173"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="190" t="s">
+      <c r="B63" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190" t="s">
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="190"/>
-      <c r="H63" s="190"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="170"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="190"/>
-      <c r="C64" s="190"/>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
-      <c r="G64" s="190"/>
-      <c r="H64" s="190"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="190" t="s">
+      <c r="B65" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="190"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="190"/>
-      <c r="F65" s="190" t="s">
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="190"/>
-      <c r="H65" s="190"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="190"/>
-      <c r="C66" s="190"/>
-      <c r="D66" s="190"/>
-      <c r="E66" s="190"/>
-      <c r="F66" s="190"/>
-      <c r="G66" s="190"/>
-      <c r="H66" s="190"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="170"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="170"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
+      <c r="H66" s="170"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="191" t="s">
+      <c r="A73" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="191"/>
-      <c r="C73" s="191"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="171"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="192"/>
-      <c r="B74" s="192"/>
-      <c r="C74" s="192"/>
+      <c r="A74" s="172"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="192"/>
-      <c r="B75" s="192"/>
-      <c r="C75" s="192"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -8819,26 +8845,6 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8957,39 +8963,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="235"/>
+      <c r="E13" s="219"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="251" t="s">
+      <c r="G13" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="252" t="s">
+      <c r="D14" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="252"/>
-      <c r="G14" s="253" t="s">
+      <c r="E14" s="221"/>
+      <c r="G14" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="251" t="s">
+      <c r="D15" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -8999,265 +9005,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="248" t="s">
+      <c r="D26" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="250"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="227"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="237" t="s">
+      <c r="C27" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="239" t="s">
+      <c r="D27" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="241"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="233"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="245"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="247"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="235"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="238"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="244"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
+      <c r="I29" s="238"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="237" t="s">
+      <c r="C30" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="241"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="233"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="245"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="247"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="235"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="238"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="244"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
+      <c r="I32" s="238"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="237" t="s">
+      <c r="C33" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="241"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="233"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="245"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="247"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="238"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="244"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="237"/>
+      <c r="F35" s="237"/>
+      <c r="G35" s="237"/>
+      <c r="H35" s="237"/>
+      <c r="I35" s="238"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="237" t="s">
+      <c r="C36" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="240"/>
-      <c r="F36" s="240"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="241"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="245"/>
-      <c r="D37" s="246"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="247"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="235"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="238"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="244"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="236"/>
+      <c r="E38" s="237"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
+      <c r="I38" s="238"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="171" t="s">
+      <c r="L39" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
-      <c r="Q39" s="171"/>
-      <c r="R39" s="171"/>
-      <c r="S39" s="171"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="171" t="s">
+      <c r="L42" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="171"/>
-      <c r="S42" s="171"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9298,157 +9304,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="141"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="248" t="s">
+      <c r="D58" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="249"/>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
-      <c r="H58" s="249"/>
-      <c r="I58" s="250"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="227"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="237" t="s">
+      <c r="C59" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="239" t="s">
+      <c r="D59" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="240"/>
-      <c r="F59" s="240"/>
-      <c r="G59" s="240"/>
-      <c r="H59" s="240"/>
-      <c r="I59" s="241"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="233"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="238"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="243"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="244"/>
+      <c r="C60" s="230"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="237"/>
+      <c r="F60" s="237"/>
+      <c r="G60" s="237"/>
+      <c r="H60" s="237"/>
+      <c r="I60" s="238"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="237" t="s">
+      <c r="C61" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="239" t="s">
+      <c r="D61" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="240"/>
-      <c r="F61" s="240"/>
-      <c r="G61" s="240"/>
-      <c r="H61" s="240"/>
-      <c r="I61" s="241"/>
+      <c r="E61" s="232"/>
+      <c r="F61" s="232"/>
+      <c r="G61" s="232"/>
+      <c r="H61" s="232"/>
+      <c r="I61" s="233"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="238"/>
-      <c r="D62" s="242"/>
-      <c r="E62" s="243"/>
-      <c r="F62" s="243"/>
-      <c r="G62" s="243"/>
-      <c r="H62" s="243"/>
-      <c r="I62" s="244"/>
+      <c r="C62" s="230"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="237"/>
+      <c r="F62" s="237"/>
+      <c r="G62" s="237"/>
+      <c r="H62" s="237"/>
+      <c r="I62" s="238"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="237" t="s">
+      <c r="C63" s="228" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="239" t="s">
+      <c r="D63" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="240"/>
-      <c r="F63" s="240"/>
-      <c r="G63" s="240"/>
-      <c r="H63" s="240"/>
-      <c r="I63" s="241"/>
+      <c r="E63" s="232"/>
+      <c r="F63" s="232"/>
+      <c r="G63" s="232"/>
+      <c r="H63" s="232"/>
+      <c r="I63" s="233"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="238"/>
-      <c r="D64" s="242"/>
-      <c r="E64" s="243"/>
-      <c r="F64" s="243"/>
-      <c r="G64" s="243"/>
-      <c r="H64" s="243"/>
-      <c r="I64" s="244"/>
+      <c r="C64" s="230"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="237"/>
+      <c r="F64" s="237"/>
+      <c r="G64" s="237"/>
+      <c r="H64" s="237"/>
+      <c r="I64" s="238"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="237" t="s">
+      <c r="C65" s="228" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="239" t="s">
+      <c r="D65" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="240"/>
-      <c r="F65" s="240"/>
-      <c r="G65" s="240"/>
-      <c r="H65" s="240"/>
-      <c r="I65" s="241"/>
+      <c r="E65" s="232"/>
+      <c r="F65" s="232"/>
+      <c r="G65" s="232"/>
+      <c r="H65" s="232"/>
+      <c r="I65" s="233"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="245"/>
-      <c r="D66" s="246"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="141"/>
-      <c r="I66" s="247"/>
+      <c r="C66" s="229"/>
+      <c r="D66" s="234"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="235"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="238"/>
-      <c r="D67" s="242"/>
-      <c r="E67" s="243"/>
-      <c r="F67" s="243"/>
-      <c r="G67" s="243"/>
-      <c r="H67" s="243"/>
-      <c r="I67" s="244"/>
+      <c r="C67" s="230"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="237"/>
+      <c r="F67" s="237"/>
+      <c r="G67" s="237"/>
+      <c r="H67" s="237"/>
+      <c r="I67" s="238"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="237" t="s">
+      <c r="C68" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="239" t="s">
+      <c r="D68" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="240"/>
-      <c r="F68" s="240"/>
-      <c r="G68" s="240"/>
-      <c r="H68" s="240"/>
-      <c r="I68" s="241"/>
+      <c r="E68" s="232"/>
+      <c r="F68" s="232"/>
+      <c r="G68" s="232"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="233"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="245"/>
-      <c r="D69" s="246"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="247"/>
+      <c r="C69" s="229"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="235"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="238"/>
-      <c r="D70" s="242"/>
-      <c r="E70" s="243"/>
-      <c r="F70" s="243"/>
-      <c r="G70" s="243"/>
-      <c r="H70" s="243"/>
-      <c r="I70" s="244"/>
+      <c r="C70" s="230"/>
+      <c r="D70" s="236"/>
+      <c r="E70" s="237"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="237"/>
+      <c r="H70" s="237"/>
+      <c r="I70" s="238"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9459,53 +9465,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="229" t="s">
+      <c r="D74" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="230"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230"/>
-      <c r="I74" s="231"/>
+      <c r="E74" s="241"/>
+      <c r="F74" s="241"/>
+      <c r="G74" s="241"/>
+      <c r="H74" s="241"/>
+      <c r="I74" s="242"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="232" t="s">
+      <c r="D75" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="233"/>
-      <c r="F75" s="233"/>
-      <c r="G75" s="233"/>
-      <c r="H75" s="233"/>
-      <c r="I75" s="234"/>
+      <c r="E75" s="244"/>
+      <c r="F75" s="244"/>
+      <c r="G75" s="244"/>
+      <c r="H75" s="244"/>
+      <c r="I75" s="245"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="232" t="s">
+      <c r="D76" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="233"/>
-      <c r="F76" s="233"/>
-      <c r="G76" s="233"/>
-      <c r="H76" s="233"/>
-      <c r="I76" s="234"/>
+      <c r="E76" s="244"/>
+      <c r="F76" s="244"/>
+      <c r="G76" s="244"/>
+      <c r="H76" s="244"/>
+      <c r="I76" s="245"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="232" t="s">
+      <c r="D77" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="233"/>
-      <c r="F77" s="233"/>
-      <c r="G77" s="233"/>
-      <c r="H77" s="233"/>
-      <c r="I77" s="234"/>
+      <c r="E77" s="244"/>
+      <c r="F77" s="244"/>
+      <c r="G77" s="244"/>
+      <c r="H77" s="244"/>
+      <c r="I77" s="245"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9524,36 +9530,45 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="235" t="s">
+      <c r="C91" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="235"/>
+      <c r="D91" s="219"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="236">
+      <c r="G91" s="246">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="236"/>
-      <c r="I91" s="236"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="246"/>
+      <c r="I91" s="246"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="228"/>
-      <c r="H92" s="228"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -9567,25 +9582,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -9708,40 +9714,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="235"/>
+      <c r="D13" s="219"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="235" t="s">
+      <c r="F13" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="252" t="s">
+      <c r="C14" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="252"/>
-      <c r="F14" s="252" t="s">
+      <c r="D14" s="221"/>
+      <c r="F14" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="219" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -9750,232 +9756,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="260" t="s">
+      <c r="D26" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="257" t="s">
+      <c r="C27" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="258" t="s">
+      <c r="D27" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="257"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="258"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="257"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="258"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="258"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="257" t="s">
+      <c r="C30" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="258" t="s">
+      <c r="D30" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="258"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="257"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="258"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="257"/>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="257" t="s">
+      <c r="C33" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="258" t="s">
+      <c r="D33" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="258"/>
-      <c r="F33" s="258"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="258"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="257"/>
-      <c r="D34" s="258"/>
-      <c r="E34" s="258"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="258"/>
-      <c r="I34" s="258"/>
+      <c r="C34" s="248"/>
+      <c r="D34" s="249"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="257"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
-      <c r="G35" s="258"/>
-      <c r="H35" s="258"/>
-      <c r="I35" s="258"/>
+      <c r="C35" s="248"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="249"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="249"/>
+      <c r="H35" s="249"/>
+      <c r="I35" s="249"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="257" t="s">
+      <c r="C36" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="258" t="s">
+      <c r="D36" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
-      <c r="I36" s="258"/>
+      <c r="E36" s="249"/>
+      <c r="F36" s="249"/>
+      <c r="G36" s="249"/>
+      <c r="H36" s="249"/>
+      <c r="I36" s="249"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="257"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
-      <c r="I37" s="258"/>
+      <c r="C37" s="248"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="249"/>
+      <c r="I37" s="249"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="257"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="258"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="249"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10016,157 +10022,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="141"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="260" t="s">
+      <c r="D58" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="260"/>
-      <c r="F58" s="260"/>
-      <c r="G58" s="260"/>
-      <c r="H58" s="260"/>
-      <c r="I58" s="260"/>
+      <c r="E58" s="247"/>
+      <c r="F58" s="247"/>
+      <c r="G58" s="247"/>
+      <c r="H58" s="247"/>
+      <c r="I58" s="247"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="257" t="s">
+      <c r="C59" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="258" t="s">
+      <c r="D59" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="258"/>
-      <c r="F59" s="258"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="258"/>
-      <c r="I59" s="258"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="249"/>
+      <c r="G59" s="249"/>
+      <c r="H59" s="249"/>
+      <c r="I59" s="249"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="257"/>
-      <c r="D60" s="258"/>
-      <c r="E60" s="258"/>
-      <c r="F60" s="258"/>
-      <c r="G60" s="258"/>
-      <c r="H60" s="258"/>
-      <c r="I60" s="258"/>
+      <c r="C60" s="248"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="249"/>
+      <c r="G60" s="249"/>
+      <c r="H60" s="249"/>
+      <c r="I60" s="249"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="257" t="s">
+      <c r="C61" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="258" t="s">
+      <c r="D61" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="258"/>
-      <c r="F61" s="258"/>
-      <c r="G61" s="258"/>
-      <c r="H61" s="258"/>
-      <c r="I61" s="258"/>
+      <c r="E61" s="249"/>
+      <c r="F61" s="249"/>
+      <c r="G61" s="249"/>
+      <c r="H61" s="249"/>
+      <c r="I61" s="249"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="257"/>
-      <c r="D62" s="258"/>
-      <c r="E62" s="258"/>
-      <c r="F62" s="258"/>
-      <c r="G62" s="258"/>
-      <c r="H62" s="258"/>
-      <c r="I62" s="258"/>
+      <c r="C62" s="248"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="249"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="249"/>
+      <c r="I62" s="249"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="257" t="s">
+      <c r="C63" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="258" t="s">
+      <c r="D63" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="258"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="249"/>
+      <c r="I63" s="249"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="257"/>
-      <c r="D64" s="258"/>
-      <c r="E64" s="258"/>
-      <c r="F64" s="258"/>
-      <c r="G64" s="258"/>
-      <c r="H64" s="258"/>
-      <c r="I64" s="258"/>
+      <c r="C64" s="248"/>
+      <c r="D64" s="249"/>
+      <c r="E64" s="249"/>
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="257" t="s">
+      <c r="C65" s="248" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="258" t="s">
+      <c r="D65" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="258"/>
-      <c r="F65" s="258"/>
-      <c r="G65" s="258"/>
-      <c r="H65" s="258"/>
-      <c r="I65" s="258"/>
+      <c r="E65" s="249"/>
+      <c r="F65" s="249"/>
+      <c r="G65" s="249"/>
+      <c r="H65" s="249"/>
+      <c r="I65" s="249"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="257"/>
-      <c r="D66" s="258"/>
-      <c r="E66" s="258"/>
-      <c r="F66" s="258"/>
-      <c r="G66" s="258"/>
-      <c r="H66" s="258"/>
-      <c r="I66" s="258"/>
+      <c r="C66" s="248"/>
+      <c r="D66" s="249"/>
+      <c r="E66" s="249"/>
+      <c r="F66" s="249"/>
+      <c r="G66" s="249"/>
+      <c r="H66" s="249"/>
+      <c r="I66" s="249"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="257"/>
-      <c r="D67" s="258"/>
-      <c r="E67" s="258"/>
-      <c r="F67" s="258"/>
-      <c r="G67" s="258"/>
-      <c r="H67" s="258"/>
-      <c r="I67" s="258"/>
+      <c r="C67" s="248"/>
+      <c r="D67" s="249"/>
+      <c r="E67" s="249"/>
+      <c r="F67" s="249"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="249"/>
+      <c r="I67" s="249"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="257" t="s">
+      <c r="C68" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="258" t="s">
+      <c r="D68" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="258"/>
-      <c r="F68" s="258"/>
-      <c r="G68" s="258"/>
-      <c r="H68" s="258"/>
-      <c r="I68" s="258"/>
+      <c r="E68" s="249"/>
+      <c r="F68" s="249"/>
+      <c r="G68" s="249"/>
+      <c r="H68" s="249"/>
+      <c r="I68" s="249"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="257"/>
-      <c r="D69" s="258"/>
-      <c r="E69" s="258"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="258"/>
-      <c r="I69" s="258"/>
+      <c r="C69" s="248"/>
+      <c r="D69" s="249"/>
+      <c r="E69" s="249"/>
+      <c r="F69" s="249"/>
+      <c r="G69" s="249"/>
+      <c r="H69" s="249"/>
+      <c r="I69" s="249"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="257"/>
-      <c r="D70" s="258"/>
-      <c r="E70" s="258"/>
-      <c r="F70" s="258"/>
-      <c r="G70" s="258"/>
-      <c r="H70" s="258"/>
-      <c r="I70" s="258"/>
+      <c r="C70" s="248"/>
+      <c r="D70" s="249"/>
+      <c r="E70" s="249"/>
+      <c r="F70" s="249"/>
+      <c r="G70" s="249"/>
+      <c r="H70" s="249"/>
+      <c r="I70" s="249"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10177,53 +10183,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="259" t="s">
+      <c r="D74" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="259"/>
-      <c r="F74" s="259"/>
-      <c r="G74" s="259"/>
-      <c r="H74" s="259"/>
-      <c r="I74" s="259"/>
+      <c r="E74" s="251"/>
+      <c r="F74" s="251"/>
+      <c r="G74" s="251"/>
+      <c r="H74" s="251"/>
+      <c r="I74" s="251"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="256" t="s">
+      <c r="D75" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="256"/>
-      <c r="F75" s="256"/>
-      <c r="G75" s="256"/>
-      <c r="H75" s="256"/>
-      <c r="I75" s="256"/>
+      <c r="E75" s="250"/>
+      <c r="F75" s="250"/>
+      <c r="G75" s="250"/>
+      <c r="H75" s="250"/>
+      <c r="I75" s="250"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="256" t="s">
+      <c r="D76" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="256"/>
-      <c r="F76" s="256"/>
-      <c r="G76" s="256"/>
-      <c r="H76" s="256"/>
-      <c r="I76" s="256"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="256" t="s">
+      <c r="D77" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="256"/>
-      <c r="F77" s="256"/>
-      <c r="G77" s="256"/>
-      <c r="H77" s="256"/>
-      <c r="I77" s="256"/>
+      <c r="E77" s="250"/>
+      <c r="F77" s="250"/>
+      <c r="G77" s="250"/>
+      <c r="H77" s="250"/>
+      <c r="I77" s="250"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10240,36 +10246,43 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="235" t="s">
+      <c r="C91" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="235"/>
+      <c r="D91" s="219"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="236">
+      <c r="G91" s="246">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="236"/>
-      <c r="I91" s="236"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="246"/>
+      <c r="I91" s="246"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -10283,23 +10296,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -10331,7 +10337,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10368,28 +10374,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10416,15 +10422,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10449,15 +10455,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10498,16 +10504,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10597,48 +10603,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="146" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="192"/>
-      <c r="C47" s="192"/>
-      <c r="D47" s="192"/>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="172"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="192"/>
-      <c r="C48" s="192"/>
-      <c r="D48" s="192"/>
-      <c r="E48" s="192"/>
-      <c r="F48" s="192"/>
-      <c r="G48" s="192"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="192"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10651,16 +10657,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -10674,16 +10680,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="146" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10706,221 +10712,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="192" t="s">
+      <c r="B68" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="192"/>
-      <c r="D68" s="192"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="192"/>
-      <c r="G68" s="192"/>
-      <c r="H68" s="192"/>
-      <c r="I68" s="192"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="192"/>
-      <c r="C69" s="192"/>
-      <c r="D69" s="192"/>
-      <c r="E69" s="192"/>
-      <c r="F69" s="192"/>
-      <c r="G69" s="192"/>
-      <c r="H69" s="192"/>
-      <c r="I69" s="192"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="261"/>
-      <c r="C71" s="262"/>
-      <c r="D71" s="265" t="s">
+      <c r="B71" s="259"/>
+      <c r="C71" s="260"/>
+      <c r="D71" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="266"/>
-      <c r="F71" s="265" t="s">
+      <c r="E71" s="264"/>
+      <c r="F71" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="266"/>
-      <c r="H71" s="265" t="s">
+      <c r="G71" s="264"/>
+      <c r="H71" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="266"/>
+      <c r="I71" s="264"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="263"/>
-      <c r="C72" s="264"/>
-      <c r="D72" s="267"/>
-      <c r="E72" s="268"/>
-      <c r="F72" s="267"/>
-      <c r="G72" s="268"/>
-      <c r="H72" s="267"/>
-      <c r="I72" s="268"/>
+      <c r="B72" s="261"/>
+      <c r="C72" s="262"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="266"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="266"/>
+      <c r="H72" s="265"/>
+      <c r="I72" s="266"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="272" t="s">
+      <c r="B73" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="273"/>
-      <c r="D73" s="269"/>
-      <c r="E73" s="270"/>
-      <c r="F73" s="271"/>
-      <c r="G73" s="270"/>
-      <c r="H73" s="271"/>
-      <c r="I73" s="270"/>
+      <c r="C73" s="256"/>
+      <c r="D73" s="252"/>
+      <c r="E73" s="253"/>
+      <c r="F73" s="254"/>
+      <c r="G73" s="253"/>
+      <c r="H73" s="254"/>
+      <c r="I73" s="253"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="192" t="s">
+      <c r="B75" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="192"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="192"/>
-      <c r="G75" s="192"/>
-      <c r="H75" s="192"/>
-      <c r="I75" s="192"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="192"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="192"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="192"/>
-      <c r="H76" s="192"/>
-      <c r="I76" s="192"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="274" t="s">
+      <c r="E78" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
+      <c r="F78" s="258"/>
+      <c r="G78" s="258"/>
+      <c r="H78" s="258"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="275"/>
-      <c r="F79" s="275"/>
-      <c r="G79" s="275"/>
-      <c r="H79" s="275"/>
+      <c r="E79" s="258"/>
+      <c r="F79" s="258"/>
+      <c r="G79" s="258"/>
+      <c r="H79" s="258"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="141" t="s">
+      <c r="A81" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="141"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="141"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="141"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="141"/>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="141"/>
-      <c r="G82" s="141"/>
-      <c r="H82" s="141"/>
-      <c r="I82" s="141"/>
+      <c r="A82" s="143"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="141"/>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="141"/>
-      <c r="H83" s="141"/>
-      <c r="I83" s="141"/>
+      <c r="A83" s="143"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="143"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="141"/>
-      <c r="B84" s="141"/>
-      <c r="C84" s="141"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="141"/>
-      <c r="G84" s="141"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
+      <c r="A84" s="143"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="143"/>
+      <c r="I84" s="143"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="141"/>
-      <c r="B85" s="141"/>
-      <c r="C85" s="141"/>
-      <c r="D85" s="141"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="141"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
+      <c r="A85" s="143"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="143"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="141"/>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
+      <c r="A86" s="143"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="141"/>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="141"/>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="141"/>
+      <c r="A88" s="143"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="I88" s="143"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="141"/>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
+      <c r="A89" s="143"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
+      <c r="G89" s="143"/>
+      <c r="H89" s="143"/>
+      <c r="I89" s="143"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="141"/>
-      <c r="B90" s="141"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="141"/>
-      <c r="G90" s="141"/>
-      <c r="H90" s="141"/>
-      <c r="I90" s="141"/>
+      <c r="A90" s="143"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="143"/>
+      <c r="I90" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
@@ -10928,19 +10947,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10965,7 +10971,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11002,28 +11008,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11050,15 +11056,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11083,15 +11089,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11132,16 +11138,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11231,48 +11237,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="146" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="192"/>
-      <c r="C47" s="192"/>
-      <c r="D47" s="192"/>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="172"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="192"/>
-      <c r="C48" s="192"/>
-      <c r="D48" s="192"/>
-      <c r="E48" s="192"/>
-      <c r="F48" s="192"/>
-      <c r="G48" s="192"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="192"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11285,16 +11291,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11308,16 +11314,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="146" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11340,227 +11346,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="192" t="s">
+      <c r="B68" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="192"/>
-      <c r="D68" s="192"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="192"/>
-      <c r="G68" s="192"/>
-      <c r="H68" s="192"/>
-      <c r="I68" s="192"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="192"/>
-      <c r="C69" s="192"/>
-      <c r="D69" s="192"/>
-      <c r="E69" s="192"/>
-      <c r="F69" s="192"/>
-      <c r="G69" s="192"/>
-      <c r="H69" s="192"/>
-      <c r="I69" s="192"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="261"/>
-      <c r="C71" s="262"/>
-      <c r="D71" s="265" t="s">
+      <c r="B71" s="259"/>
+      <c r="C71" s="260"/>
+      <c r="D71" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="266"/>
-      <c r="F71" s="265" t="s">
+      <c r="E71" s="264"/>
+      <c r="F71" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="266"/>
-      <c r="H71" s="265" t="s">
+      <c r="G71" s="264"/>
+      <c r="H71" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="266"/>
+      <c r="I71" s="264"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="263"/>
-      <c r="C72" s="264"/>
-      <c r="D72" s="267"/>
-      <c r="E72" s="268"/>
-      <c r="F72" s="267"/>
-      <c r="G72" s="268"/>
-      <c r="H72" s="267"/>
-      <c r="I72" s="268"/>
+      <c r="B72" s="261"/>
+      <c r="C72" s="262"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="266"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="266"/>
+      <c r="H72" s="265"/>
+      <c r="I72" s="266"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="272" t="s">
+      <c r="B73" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="273"/>
-      <c r="D73" s="269"/>
-      <c r="E73" s="270"/>
-      <c r="F73" s="271"/>
-      <c r="G73" s="270"/>
-      <c r="H73" s="271"/>
-      <c r="I73" s="270"/>
+      <c r="C73" s="256"/>
+      <c r="D73" s="252"/>
+      <c r="E73" s="253"/>
+      <c r="F73" s="254"/>
+      <c r="G73" s="253"/>
+      <c r="H73" s="254"/>
+      <c r="I73" s="253"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="192" t="s">
+      <c r="B75" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="192"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="192"/>
-      <c r="G75" s="192"/>
-      <c r="H75" s="192"/>
-      <c r="I75" s="192"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="192"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="192"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="192"/>
-      <c r="H76" s="192"/>
-      <c r="I76" s="192"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="274" t="s">
+      <c r="E78" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
+      <c r="F78" s="258"/>
+      <c r="G78" s="258"/>
+      <c r="H78" s="258"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="275"/>
-      <c r="F79" s="275"/>
-      <c r="G79" s="275"/>
-      <c r="H79" s="275"/>
+      <c r="E79" s="258"/>
+      <c r="F79" s="258"/>
+      <c r="G79" s="258"/>
+      <c r="H79" s="258"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="141" t="s">
+      <c r="A81" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="141"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="141"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="141"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="141"/>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="141"/>
-      <c r="G82" s="141"/>
-      <c r="H82" s="141"/>
-      <c r="I82" s="141"/>
+      <c r="A82" s="143"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="141"/>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="141"/>
-      <c r="H83" s="141"/>
-      <c r="I83" s="141"/>
+      <c r="A83" s="143"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="143"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="141"/>
-      <c r="B84" s="141"/>
-      <c r="C84" s="141"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="141"/>
-      <c r="G84" s="141"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
+      <c r="A84" s="143"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="143"/>
+      <c r="I84" s="143"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="141"/>
-      <c r="B85" s="141"/>
-      <c r="C85" s="141"/>
-      <c r="D85" s="141"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="141"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
+      <c r="A85" s="143"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="143"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="141"/>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
+      <c r="A86" s="143"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="141"/>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="141"/>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="141"/>
+      <c r="A88" s="143"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="I88" s="143"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="141"/>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
+      <c r="A89" s="143"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
+      <c r="G89" s="143"/>
+      <c r="H89" s="143"/>
+      <c r="I89" s="143"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="141"/>
-      <c r="B90" s="141"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="141"/>
-      <c r="G90" s="141"/>
-      <c r="H90" s="141"/>
-      <c r="I90" s="141"/>
+      <c r="A90" s="143"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="143"/>
+      <c r="I90" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -11568,13 +11575,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/app/resource/xlsx/major_proposal_template_1_case5.xlsx
+++ b/app/resource/xlsx/major_proposal_template_1_case5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\Documents\GitHub\xero-asana-intergration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D398970-10FC-460B-ABD5-FBF461702E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C504A75-38E7-49AF-9FE3-56CC1F324721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="294">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -1004,9 +1004,6 @@
 </t>
   </si>
   <si>
-    <t>The project is a boarding house develop and consists of:</t>
-  </si>
-  <si>
     <t>Plant room ventilations, including storage rooms, grease arrest room, garbage rooms, etc.</t>
   </si>
   <si>
@@ -1033,21 +1030,6 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
-  </si>
-  <si>
-    <t> Design Development</t>
-  </si>
-  <si>
-    <t>Construction Documents</t>
-  </si>
-  <si>
-    <t>Full set of drawings in PDF and AutoCAD 2D </t>
-  </si>
-  <si>
-    <t>Scope of Mechanical and Fire Protection comprises the following stages:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Scope of Staging </t>
   </si>
   <si>
     <t>Construction
@@ -1066,7 +1048,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,14 +1272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1331,7 +1305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1834,104 +1808,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1941,7 +1817,7 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2268,35 +2144,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2321,7 +2196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2339,45 +2214,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2390,6 +2232,30 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2681,30 +2547,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3736,9 +3580,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3776,7 +3620,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3882,7 +3726,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4024,7 +3868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4035,14 +3879,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A221" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A80" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
@@ -4053,67 +3898,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="147" t="s">
+      <c r="F37" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="146" t="s">
+      <c r="F39" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="146" t="s">
+      <c r="F40" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="146" t="s">
+      <c r="F41" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4121,28 +3966,28 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
       <c r="I43" s="33" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139" t="e">
+        <v>286</v>
+      </c>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4150,10 +3995,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4216,15 +4061,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4249,26 +4094,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4276,93 +4121,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151"/>
-      <c r="S54" s="151"/>
-      <c r="T54" s="151"/>
-      <c r="U54" s="151"/>
-      <c r="V54" s="151"/>
-      <c r="W54" s="151"/>
-      <c r="X54" s="151"/>
+      <c r="Q54" s="150"/>
+      <c r="R54" s="150"/>
+      <c r="S54" s="150"/>
+      <c r="T54" s="150"/>
+      <c r="U54" s="150"/>
+      <c r="V54" s="150"/>
+      <c r="W54" s="150"/>
+      <c r="X54" s="150"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="142" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="M56" s="149"/>
-      <c r="N56" s="149"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="149"/>
-      <c r="R56" s="149"/>
-      <c r="S56" s="149"/>
-      <c r="T56" s="149"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="143"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="M57" s="149"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="149"/>
-      <c r="Q57" s="149"/>
-      <c r="R57" s="149"/>
-      <c r="S57" s="149"/>
-      <c r="T57" s="149"/>
+      <c r="A57" s="142"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="143"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="M58" s="149"/>
-      <c r="N58" s="149"/>
-      <c r="O58" s="149"/>
-      <c r="P58" s="149"/>
-      <c r="Q58" s="149"/>
-      <c r="R58" s="149"/>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="M58" s="148"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="143"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="M59" s="149"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
-      <c r="P59" s="149"/>
-      <c r="Q59" s="149"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4380,30 +4225,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="143" t="s">
+      <c r="A61" s="142" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="143"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="143"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
+      <c r="I62" s="142"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4415,16 +4260,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="143"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="143"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4434,32 +4279,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="142"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="143" t="s">
+      <c r="B65" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4468,16 +4313,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="142" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="143"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="142"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4498,29 +4343,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="143" t="s">
+      <c r="A68" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="143"/>
-      <c r="F68" s="143"/>
-      <c r="G68" s="143"/>
-      <c r="H68" s="143"/>
-      <c r="I68" s="143"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="142"/>
+      <c r="I68" s="142"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="143"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4669,24 +4514,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="143"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="143"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="143"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,16 +4580,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="143" t="s">
+      <c r="B91" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="143"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="143"/>
-      <c r="F91" s="143"/>
-      <c r="G91" s="143"/>
-      <c r="H91" s="143"/>
-      <c r="I91" s="143"/>
+      <c r="C91" s="142"/>
+      <c r="D91" s="142"/>
+      <c r="E91" s="142"/>
+      <c r="F91" s="142"/>
+      <c r="G91" s="142"/>
+      <c r="H91" s="142"/>
+      <c r="I91" s="142"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4753,25 +4598,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="143"/>
-      <c r="H92" s="143"/>
-      <c r="I92" s="143"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="142"/>
+      <c r="D92" s="142"/>
+      <c r="E92" s="142"/>
+      <c r="F92" s="142"/>
+      <c r="G92" s="142"/>
+      <c r="H92" s="142"/>
+      <c r="I92" s="142"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="143"/>
-      <c r="F93" s="143"/>
-      <c r="G93" s="143"/>
-      <c r="H93" s="143"/>
-      <c r="I93" s="143"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="142"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="142"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4821,11 +4666,9 @@
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="124" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
-      </c>
-      <c r="B98" s="122" t="s">
-        <v>284</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B98" s="122"/>
       <c r="C98" s="123"/>
       <c r="D98" s="123"/>
       <c r="E98" s="123"/>
@@ -4924,7 +4767,7 @@
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="124"/>
-      <c r="B107" s="122"/>
+      <c r="B107" s="263"/>
       <c r="C107" s="123"/>
       <c r="D107" s="123"/>
       <c r="E107" s="123"/>
@@ -4935,329 +4778,321 @@
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="124"/>
-      <c r="B108" s="122"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="135"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
       <c r="L108" s="1"/>
       <c r="M108" s="85"/>
       <c r="P108" s="42"/>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="124"/>
-      <c r="B109" s="122"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="123"/>
+      <c r="B109" s="134"/>
+      <c r="C109" s="135"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="135"/>
+      <c r="F109" s="135"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
       <c r="L109" s="1"/>
       <c r="M109" s="85"/>
       <c r="P109" s="42"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="124"/>
-      <c r="B110" s="122"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="135"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="135"/>
+      <c r="F110" s="135"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
       <c r="L110" s="1"/>
       <c r="M110" s="85"/>
       <c r="P110" s="42"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="134">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B111" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="123"/>
+      <c r="A111" s="124"/>
+      <c r="B111" s="136"/>
+      <c r="C111" s="135"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="135"/>
+      <c r="F111" s="135"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
       <c r="L111" s="1"/>
       <c r="M111" s="85"/>
       <c r="P111" s="42"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="124"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="123"/>
+      <c r="B112" s="137"/>
+      <c r="C112" s="135"/>
+      <c r="D112" s="135"/>
+      <c r="E112" s="135"/>
+      <c r="F112" s="135"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
       <c r="L112" s="1"/>
       <c r="M112" s="85"/>
       <c r="P112" s="42"/>
     </row>
     <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
+      <c r="A113" s="124"/>
+      <c r="B113" s="137"/>
+      <c r="C113" s="135"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="135"/>
+      <c r="F113" s="135"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
       <c r="L113" s="1"/>
       <c r="M113" s="85"/>
       <c r="P113" s="42"/>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="124"/>
-      <c r="B114" s="268"/>
-      <c r="C114" s="268"/>
-      <c r="D114" s="268"/>
-      <c r="E114" s="268"/>
-      <c r="F114" s="268"/>
-      <c r="G114" s="268"/>
-      <c r="H114" s="268"/>
-      <c r="I114" s="268"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
       <c r="L114" s="1"/>
       <c r="M114" s="85"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="124"/>
-      <c r="B115" s="268"/>
-      <c r="C115" s="268"/>
-      <c r="D115" s="268"/>
-      <c r="E115" s="268"/>
-      <c r="F115" s="268"/>
-      <c r="G115" s="268"/>
-      <c r="H115" s="268"/>
-      <c r="I115" s="268"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
       <c r="L115" s="1"/>
       <c r="M115" s="85"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="124"/>
-      <c r="B116" s="273"/>
-      <c r="C116" s="273"/>
-      <c r="D116" s="273"/>
-      <c r="E116" s="273"/>
-      <c r="F116" s="273"/>
-      <c r="G116" s="273"/>
-      <c r="H116" s="273"/>
-      <c r="I116" s="273"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
       <c r="L116" s="1"/>
       <c r="M116" s="85"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="124"/>
-      <c r="B117" s="162" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="267"/>
-      <c r="D117" s="267" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="267"/>
-      <c r="F117" s="267"/>
-      <c r="G117" s="267"/>
-      <c r="H117" s="267"/>
-      <c r="I117" s="154"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
       <c r="L117" s="1"/>
       <c r="M117" s="85"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="124"/>
-      <c r="B118" s="162"/>
-      <c r="C118" s="153"/>
-      <c r="D118" s="153" t="s">
-        <v>278</v>
-      </c>
-      <c r="E118" s="153"/>
-      <c r="F118" s="153"/>
-      <c r="G118" s="153"/>
-      <c r="H118" s="153"/>
-      <c r="I118" s="154"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
       <c r="L118" s="1"/>
       <c r="M118" s="85"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="124"/>
-      <c r="B119" s="163"/>
-      <c r="C119" s="155"/>
-      <c r="D119" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="E119" s="155"/>
-      <c r="F119" s="155"/>
-      <c r="G119" s="155"/>
-      <c r="H119" s="155"/>
-      <c r="I119" s="156"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
       <c r="L119" s="1"/>
       <c r="M119" s="85"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="124"/>
-      <c r="B120" s="161" t="s">
-        <v>295</v>
-      </c>
-      <c r="C120" s="157"/>
-      <c r="D120" s="157" t="s">
-        <v>239</v>
-      </c>
-      <c r="E120" s="157"/>
-      <c r="F120" s="157"/>
-      <c r="G120" s="157"/>
-      <c r="H120" s="157"/>
-      <c r="I120" s="158"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
       <c r="L120" s="1"/>
       <c r="M120" s="85"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="124"/>
-      <c r="B121" s="162"/>
-      <c r="C121" s="153"/>
-      <c r="D121" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="153"/>
-      <c r="F121" s="153"/>
-      <c r="G121" s="153"/>
-      <c r="H121" s="153"/>
-      <c r="I121" s="154"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
       <c r="L121" s="1"/>
       <c r="M121" s="85"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="124"/>
-      <c r="B122" s="162"/>
-      <c r="C122" s="153"/>
-      <c r="D122" s="153" t="s">
-        <v>296</v>
-      </c>
-      <c r="E122" s="153"/>
-      <c r="F122" s="153"/>
-      <c r="G122" s="153"/>
-      <c r="H122" s="153"/>
-      <c r="I122" s="154"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
       <c r="L122" s="1"/>
       <c r="M122" s="85"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="124"/>
-      <c r="B123" s="162"/>
-      <c r="C123" s="153"/>
-      <c r="D123" s="153" t="s">
-        <v>258</v>
-      </c>
-      <c r="E123" s="153"/>
-      <c r="F123" s="153"/>
-      <c r="G123" s="153"/>
-      <c r="H123" s="153"/>
-      <c r="I123" s="154"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
       <c r="L123" s="1"/>
       <c r="M123" s="85"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="124"/>
-      <c r="B124" s="162"/>
-      <c r="C124" s="267"/>
-      <c r="D124" s="267" t="s">
-        <v>282</v>
-      </c>
-      <c r="E124" s="267"/>
-      <c r="F124" s="267"/>
-      <c r="G124" s="267"/>
-      <c r="H124" s="267"/>
-      <c r="I124" s="154"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
       <c r="L124" s="1"/>
       <c r="M124" s="85"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="124"/>
-      <c r="B125" s="272"/>
-      <c r="C125" s="272"/>
-      <c r="D125" s="272"/>
-      <c r="E125" s="272"/>
-      <c r="F125" s="272"/>
-      <c r="G125" s="272"/>
-      <c r="H125" s="272"/>
-      <c r="I125" s="272"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
       <c r="L125" s="1"/>
       <c r="M125" s="85"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="124"/>
-      <c r="B126" s="269"/>
-      <c r="C126" s="269"/>
-      <c r="D126" s="269"/>
-      <c r="E126" s="269"/>
-      <c r="F126" s="269"/>
-      <c r="G126" s="269"/>
-      <c r="H126" s="269"/>
-      <c r="I126" s="269"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
       <c r="L126" s="1"/>
       <c r="M126" s="85"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="123"/>
-      <c r="B127" s="269"/>
-      <c r="C127" s="269"/>
-      <c r="D127" s="269"/>
-      <c r="E127" s="269"/>
-      <c r="F127" s="269"/>
-      <c r="G127" s="269"/>
-      <c r="H127" s="269"/>
-      <c r="I127" s="269"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
       <c r="M127" s="86"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="123"/>
-      <c r="B128" s="269"/>
-      <c r="C128" s="269"/>
-      <c r="D128" s="269"/>
-      <c r="E128" s="269"/>
-      <c r="F128" s="269"/>
-      <c r="G128" s="269"/>
-      <c r="H128" s="269"/>
-      <c r="I128" s="269"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
       <c r="M128" s="86"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="123"/>
-      <c r="B129" s="269"/>
-      <c r="C129" s="269"/>
-      <c r="D129" s="269"/>
-      <c r="E129" s="269"/>
-      <c r="F129" s="269"/>
-      <c r="G129" s="269"/>
-      <c r="H129" s="269"/>
-      <c r="I129" s="269"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
       <c r="M129" s="86"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
     <row r="130" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="123"/>
-      <c r="B130" s="270"/>
-      <c r="C130" s="271"/>
-      <c r="D130" s="271"/>
-      <c r="E130" s="271"/>
-      <c r="F130" s="271"/>
-      <c r="G130" s="271"/>
-      <c r="H130" s="271"/>
-      <c r="I130" s="271"/>
+      <c r="A130" s="124"/>
+      <c r="B130" s="135"/>
+      <c r="C130" s="135"/>
+      <c r="D130" s="135"/>
+      <c r="E130" s="135"/>
+      <c r="F130" s="135"/>
+      <c r="G130" s="135"/>
+      <c r="H130" s="135"/>
+      <c r="I130" s="135"/>
       <c r="M130" s="86"/>
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
@@ -5294,7 +5129,7 @@
       <c r="G133" s="28"/>
       <c r="I133" s="127"/>
       <c r="L133" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N133" s="58"/>
       <c r="O133" s="42"/>
@@ -5306,16 +5141,16 @@
         <f t="shared" ref="L134:L145" si="2">IF(M134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M134" s="141" t="s">
+      <c r="M134" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="N134" s="141"/>
-      <c r="O134" s="141"/>
-      <c r="P134" s="141"/>
-      <c r="Q134" s="141"/>
-      <c r="R134" s="141"/>
-      <c r="S134" s="141"/>
-      <c r="T134" s="141"/>
+      <c r="N134" s="140"/>
+      <c r="O134" s="140"/>
+      <c r="P134" s="140"/>
+      <c r="Q134" s="140"/>
+      <c r="R134" s="140"/>
+      <c r="S134" s="140"/>
+      <c r="T134" s="140"/>
     </row>
     <row r="135" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
@@ -5323,16 +5158,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M135" s="141" t="s">
+      <c r="M135" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="N135" s="141"/>
-      <c r="O135" s="141"/>
-      <c r="P135" s="141"/>
-      <c r="Q135" s="141"/>
-      <c r="R135" s="141"/>
-      <c r="S135" s="141"/>
-      <c r="T135" s="141"/>
+      <c r="N135" s="140"/>
+      <c r="O135" s="140"/>
+      <c r="P135" s="140"/>
+      <c r="Q135" s="140"/>
+      <c r="R135" s="140"/>
+      <c r="S135" s="140"/>
+      <c r="T135" s="140"/>
     </row>
     <row r="136" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="str">
@@ -5389,16 +5224,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M139" s="143" t="s">
-        <v>285</v>
-      </c>
-      <c r="N139" s="143"/>
-      <c r="O139" s="143"/>
-      <c r="P139" s="143"/>
-      <c r="Q139" s="143"/>
-      <c r="R139" s="143"/>
-      <c r="S139" s="143"/>
-      <c r="T139" s="143"/>
+      <c r="M139" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="N139" s="142"/>
+      <c r="O139" s="142"/>
+      <c r="P139" s="142"/>
+      <c r="Q139" s="142"/>
+      <c r="R139" s="142"/>
+      <c r="S139" s="142"/>
+      <c r="T139" s="142"/>
     </row>
     <row r="140" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
@@ -5445,16 +5280,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M143" s="141" t="s">
+      <c r="M143" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="N143" s="141"/>
-      <c r="O143" s="141"/>
-      <c r="P143" s="141"/>
-      <c r="Q143" s="141"/>
-      <c r="R143" s="141"/>
-      <c r="S143" s="141"/>
-      <c r="T143" s="141"/>
+      <c r="N143" s="140"/>
+      <c r="O143" s="140"/>
+      <c r="P143" s="140"/>
+      <c r="Q143" s="140"/>
+      <c r="R143" s="140"/>
+      <c r="S143" s="140"/>
+      <c r="T143" s="140"/>
     </row>
     <row r="144" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
@@ -5474,28 +5309,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M145" s="141" t="s">
+      <c r="M145" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="N145" s="141"/>
-      <c r="O145" s="141"/>
-      <c r="P145" s="141"/>
-      <c r="Q145" s="141"/>
-      <c r="R145" s="141"/>
-      <c r="S145" s="141"/>
-      <c r="T145" s="141"/>
+      <c r="N145" s="140"/>
+      <c r="O145" s="140"/>
+      <c r="P145" s="140"/>
+      <c r="Q145" s="140"/>
+      <c r="R145" s="140"/>
+      <c r="S145" s="140"/>
+      <c r="T145" s="140"/>
     </row>
     <row r="146" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="L146" s="31"/>
-      <c r="M146" s="141"/>
-      <c r="N146" s="141"/>
-      <c r="O146" s="141"/>
-      <c r="P146" s="141"/>
-      <c r="Q146" s="141"/>
-      <c r="R146" s="141"/>
-      <c r="S146" s="141"/>
-      <c r="T146" s="141"/>
+      <c r="M146" s="140"/>
+      <c r="N146" s="140"/>
+      <c r="O146" s="140"/>
+      <c r="P146" s="140"/>
+      <c r="Q146" s="140"/>
+      <c r="R146" s="140"/>
+      <c r="S146" s="140"/>
+      <c r="T146" s="140"/>
     </row>
     <row r="147" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
@@ -6027,16 +5862,16 @@
     </row>
     <row r="179" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="59"/>
-      <c r="B179" s="143" t="s">
+      <c r="B179" s="142" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="143"/>
-      <c r="D179" s="143"/>
-      <c r="E179" s="143"/>
-      <c r="F179" s="143"/>
-      <c r="G179" s="143"/>
-      <c r="H179" s="143"/>
-      <c r="I179" s="143"/>
+      <c r="C179" s="142"/>
+      <c r="D179" s="142"/>
+      <c r="E179" s="142"/>
+      <c r="F179" s="142"/>
+      <c r="G179" s="142"/>
+      <c r="H179" s="142"/>
+      <c r="I179" s="142"/>
       <c r="K179" s="58"/>
       <c r="N179" s="42"/>
       <c r="O179" s="42"/>
@@ -6044,14 +5879,14 @@
     </row>
     <row r="180" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="59"/>
-      <c r="B180" s="143"/>
-      <c r="C180" s="143"/>
-      <c r="D180" s="143"/>
-      <c r="E180" s="143"/>
-      <c r="F180" s="143"/>
-      <c r="G180" s="143"/>
-      <c r="H180" s="143"/>
-      <c r="I180" s="143"/>
+      <c r="B180" s="142"/>
+      <c r="C180" s="142"/>
+      <c r="D180" s="142"/>
+      <c r="E180" s="142"/>
+      <c r="F180" s="142"/>
+      <c r="G180" s="142"/>
+      <c r="H180" s="142"/>
+      <c r="I180" s="142"/>
       <c r="K180" s="58"/>
       <c r="M180" s="42"/>
       <c r="N180" s="42"/>
@@ -6060,14 +5895,14 @@
     </row>
     <row r="181" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="59"/>
-      <c r="B181" s="143"/>
-      <c r="C181" s="143"/>
-      <c r="D181" s="143"/>
-      <c r="E181" s="143"/>
-      <c r="F181" s="143"/>
-      <c r="G181" s="143"/>
-      <c r="H181" s="143"/>
-      <c r="I181" s="143"/>
+      <c r="B181" s="142"/>
+      <c r="C181" s="142"/>
+      <c r="D181" s="142"/>
+      <c r="E181" s="142"/>
+      <c r="F181" s="142"/>
+      <c r="G181" s="142"/>
+      <c r="H181" s="142"/>
+      <c r="I181" s="142"/>
       <c r="K181" s="58"/>
       <c r="M181" s="42"/>
       <c r="N181" s="42"/>
@@ -6076,14 +5911,14 @@
     </row>
     <row r="182" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="59"/>
-      <c r="B182" s="143"/>
-      <c r="C182" s="143"/>
-      <c r="D182" s="143"/>
-      <c r="E182" s="143"/>
-      <c r="F182" s="143"/>
-      <c r="G182" s="143"/>
-      <c r="H182" s="143"/>
-      <c r="I182" s="143"/>
+      <c r="B182" s="142"/>
+      <c r="C182" s="142"/>
+      <c r="D182" s="142"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
       <c r="K182" s="58"/>
       <c r="M182" s="42"/>
       <c r="N182" s="42"/>
@@ -6126,16 +5961,16 @@
     </row>
     <row r="185" spans="1:17" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="59"/>
-      <c r="B185" s="143" t="s">
+      <c r="B185" s="142" t="s">
         <v>221</v>
       </c>
-      <c r="C185" s="143"/>
-      <c r="D185" s="143"/>
-      <c r="E185" s="143"/>
-      <c r="F185" s="143"/>
-      <c r="G185" s="143"/>
-      <c r="H185" s="143"/>
-      <c r="I185" s="143"/>
+      <c r="C185" s="142"/>
+      <c r="D185" s="142"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
       <c r="K185" s="58"/>
       <c r="M185" s="42"/>
       <c r="N185" s="42"/>
@@ -6144,14 +5979,14 @@
     </row>
     <row r="186" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="59"/>
-      <c r="B186" s="143"/>
-      <c r="C186" s="143"/>
-      <c r="D186" s="143"/>
-      <c r="E186" s="143"/>
-      <c r="F186" s="143"/>
-      <c r="G186" s="143"/>
-      <c r="H186" s="143"/>
-      <c r="I186" s="143"/>
+      <c r="B186" s="142"/>
+      <c r="C186" s="142"/>
+      <c r="D186" s="142"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
       <c r="K186" s="58" t="s">
         <v>218</v>
       </c>
@@ -6274,16 +6109,16 @@
     </row>
     <row r="193" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="58"/>
-      <c r="B193" s="141" t="s">
+      <c r="B193" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="C193" s="141"/>
-      <c r="D193" s="141"/>
-      <c r="E193" s="141"/>
-      <c r="F193" s="141"/>
-      <c r="G193" s="141"/>
-      <c r="H193" s="141"/>
-      <c r="I193" s="141"/>
+      <c r="C193" s="140"/>
+      <c r="D193" s="140"/>
+      <c r="E193" s="140"/>
+      <c r="F193" s="140"/>
+      <c r="G193" s="140"/>
+      <c r="H193" s="140"/>
+      <c r="I193" s="140"/>
       <c r="K193" s="58" t="s">
         <v>280</v>
       </c>
@@ -6525,16 +6360,16 @@
     </row>
     <row r="206" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="58"/>
-      <c r="B206" s="139" t="s">
+      <c r="B206" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="139"/>
-      <c r="D206" s="139"/>
-      <c r="E206" s="139"/>
-      <c r="F206" s="139"/>
-      <c r="G206" s="139"/>
-      <c r="H206" s="139"/>
-      <c r="I206" s="139"/>
+      <c r="C206" s="138"/>
+      <c r="D206" s="138"/>
+      <c r="E206" s="138"/>
+      <c r="F206" s="138"/>
+      <c r="G206" s="138"/>
+      <c r="H206" s="138"/>
+      <c r="I206" s="138"/>
       <c r="K206" t="s">
         <v>65</v>
       </c>
@@ -6593,16 +6428,16 @@
       <c r="P210" s="42"/>
     </row>
     <row r="211" spans="1:20" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="141" t="s">
+      <c r="B211" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="C211" s="141"/>
-      <c r="D211" s="141"/>
-      <c r="E211" s="141"/>
-      <c r="F211" s="141"/>
-      <c r="G211" s="141"/>
-      <c r="H211" s="141"/>
-      <c r="I211" s="141"/>
+      <c r="C211" s="140"/>
+      <c r="D211" s="140"/>
+      <c r="E211" s="140"/>
+      <c r="F211" s="140"/>
+      <c r="G211" s="140"/>
+      <c r="H211" s="140"/>
+      <c r="I211" s="140"/>
       <c r="K211" s="58"/>
       <c r="L211" s="60"/>
     </row>
@@ -6611,14 +6446,14 @@
         <v>142</v>
       </c>
       <c r="C212" s="78"/>
-      <c r="D212" s="159" t="s">
+      <c r="D212" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="E212" s="159"/>
-      <c r="F212" s="159" t="s">
+      <c r="E212" s="152"/>
+      <c r="F212" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="G212" s="159"/>
+      <c r="G212" s="152"/>
       <c r="H212" s="29"/>
       <c r="O212" s="25"/>
       <c r="P212" s="29"/>
@@ -6628,14 +6463,14 @@
         <v>138</v>
       </c>
       <c r="C213" s="53"/>
-      <c r="D213" s="140" t="s">
+      <c r="D213" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="E213" s="140"/>
-      <c r="F213" s="160">
+      <c r="E213" s="139"/>
+      <c r="F213" s="153">
         <v>10000000</v>
       </c>
-      <c r="G213" s="160"/>
+      <c r="G213" s="153"/>
       <c r="H213" s="48"/>
       <c r="I213" s="25"/>
       <c r="O213" s="47"/>
@@ -6646,14 +6481,14 @@
         <v>140</v>
       </c>
       <c r="C214" s="53"/>
-      <c r="D214" s="140" t="s">
+      <c r="D214" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="E214" s="140"/>
-      <c r="F214" s="160">
+      <c r="E214" s="139"/>
+      <c r="F214" s="153">
         <v>20000000</v>
       </c>
-      <c r="G214" s="160"/>
+      <c r="G214" s="153"/>
       <c r="H214" s="48"/>
       <c r="O214" s="47"/>
       <c r="P214" s="65"/>
@@ -6722,16 +6557,16 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="143" t="s">
+      <c r="B218" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="C218" s="143"/>
-      <c r="D218" s="143"/>
-      <c r="E218" s="143"/>
-      <c r="F218" s="143"/>
-      <c r="G218" s="143"/>
-      <c r="H218" s="143"/>
-      <c r="I218" s="143"/>
+      <c r="C218" s="142"/>
+      <c r="D218" s="142"/>
+      <c r="E218" s="142"/>
+      <c r="F218" s="142"/>
+      <c r="G218" s="142"/>
+      <c r="H218" s="142"/>
+      <c r="I218" s="142"/>
       <c r="P218" s="65"/>
       <c r="Q218" s="35"/>
       <c r="R218" s="35"/>
@@ -6740,39 +6575,39 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="143"/>
-      <c r="C219" s="143"/>
-      <c r="D219" s="143"/>
-      <c r="E219" s="143"/>
-      <c r="F219" s="143"/>
-      <c r="G219" s="143"/>
-      <c r="H219" s="143"/>
-      <c r="I219" s="143"/>
+      <c r="B219" s="142"/>
+      <c r="C219" s="142"/>
+      <c r="D219" s="142"/>
+      <c r="E219" s="142"/>
+      <c r="F219" s="142"/>
+      <c r="G219" s="142"/>
+      <c r="H219" s="142"/>
+      <c r="I219" s="142"/>
       <c r="P219" s="65"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="143"/>
-      <c r="C220" s="143"/>
-      <c r="D220" s="143"/>
-      <c r="E220" s="143"/>
-      <c r="F220" s="143"/>
-      <c r="G220" s="143"/>
-      <c r="H220" s="143"/>
-      <c r="I220" s="143"/>
+      <c r="B220" s="142"/>
+      <c r="C220" s="142"/>
+      <c r="D220" s="142"/>
+      <c r="E220" s="142"/>
+      <c r="F220" s="142"/>
+      <c r="G220" s="142"/>
+      <c r="H220" s="142"/>
+      <c r="I220" s="142"/>
       <c r="P220" s="65"/>
       <c r="S220" s="34"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="143"/>
-      <c r="C221" s="143"/>
-      <c r="D221" s="143"/>
-      <c r="E221" s="143"/>
-      <c r="F221" s="143"/>
-      <c r="G221" s="143"/>
-      <c r="H221" s="143"/>
-      <c r="I221" s="143"/>
+      <c r="B221" s="142"/>
+      <c r="C221" s="142"/>
+      <c r="D221" s="142"/>
+      <c r="E221" s="142"/>
+      <c r="F221" s="142"/>
+      <c r="G221" s="142"/>
+      <c r="H221" s="142"/>
+      <c r="I221" s="142"/>
       <c r="P221" s="65"/>
       <c r="Q221" s="16"/>
       <c r="R221" s="16"/>
@@ -6818,42 +6653,42 @@
       <c r="P223" s="42"/>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="143" t="s">
+      <c r="B224" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="C224" s="143"/>
-      <c r="D224" s="143"/>
-      <c r="E224" s="143"/>
-      <c r="F224" s="143"/>
-      <c r="G224" s="143"/>
-      <c r="H224" s="143"/>
-      <c r="I224" s="143"/>
+      <c r="C224" s="142"/>
+      <c r="D224" s="142"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+      <c r="G224" s="142"/>
+      <c r="H224" s="142"/>
+      <c r="I224" s="142"/>
     </row>
     <row r="225" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="143"/>
-      <c r="C225" s="143"/>
-      <c r="D225" s="143"/>
-      <c r="E225" s="143"/>
-      <c r="F225" s="143"/>
-      <c r="G225" s="143"/>
-      <c r="H225" s="143"/>
-      <c r="I225" s="143"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B226" s="169" t="s">
+      <c r="B225" s="142"/>
+      <c r="C225" s="142"/>
+      <c r="D225" s="142"/>
+      <c r="E225" s="142"/>
+      <c r="F225" s="142"/>
+      <c r="G225" s="142"/>
+      <c r="H225" s="142"/>
+      <c r="I225" s="142"/>
+    </row>
+    <row r="226" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="157" t="s">
+        <v>287</v>
+      </c>
+      <c r="C226" s="157"/>
+      <c r="D226" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="C226" s="169"/>
-      <c r="D226" s="274" t="s">
+      <c r="E226" s="159"/>
+      <c r="F226" s="158" t="s">
+        <v>293</v>
+      </c>
+      <c r="G226" s="159"/>
+      <c r="H226" s="157" t="s">
         <v>289</v>
-      </c>
-      <c r="E226" s="164" t="s">
-        <v>299</v>
-      </c>
-      <c r="F226" s="164"/>
-      <c r="G226" s="164"/>
-      <c r="H226" s="169" t="s">
-        <v>290</v>
       </c>
       <c r="K226" s="58"/>
       <c r="L226" s="109" t="s">
@@ -6869,13 +6704,13 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="169"/>
-      <c r="C227" s="169"/>
-      <c r="D227" s="275"/>
-      <c r="E227" s="165"/>
-      <c r="F227" s="165"/>
-      <c r="G227" s="165"/>
-      <c r="H227" s="169"/>
+      <c r="B227" s="157"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="160"/>
+      <c r="E227" s="161"/>
+      <c r="F227" s="160"/>
+      <c r="G227" s="161"/>
+      <c r="H227" s="157"/>
       <c r="I227" s="25"/>
       <c r="L227" s="111" t="s">
         <v>269</v>
@@ -6891,13 +6726,13 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="167"/>
-      <c r="C228" s="167"/>
-      <c r="D228" s="131"/>
-      <c r="E228" s="131"/>
-      <c r="F228" s="131"/>
-      <c r="G228" s="132"/>
-      <c r="H228" s="132"/>
+      <c r="B228" s="155"/>
+      <c r="C228" s="155"/>
+      <c r="D228" s="162"/>
+      <c r="E228" s="163"/>
+      <c r="F228" s="162"/>
+      <c r="G228" s="163"/>
+      <c r="H228" s="130"/>
       <c r="I228" s="25"/>
       <c r="L228" s="108" t="s">
         <v>279</v>
@@ -6913,15 +6748,15 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="167" t="s">
-        <v>291</v>
-      </c>
-      <c r="C229" s="167"/>
-      <c r="D229" s="133"/>
-      <c r="E229" s="131"/>
-      <c r="F229" s="131"/>
-      <c r="G229" s="132"/>
-      <c r="H229" s="132"/>
+      <c r="B229" s="155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C229" s="155"/>
+      <c r="D229" s="164"/>
+      <c r="E229" s="165"/>
+      <c r="F229" s="162"/>
+      <c r="G229" s="163"/>
+      <c r="H229" s="130"/>
       <c r="I229" s="25"/>
       <c r="L229" s="106" t="s">
         <v>277</v>
@@ -6937,15 +6772,15 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="168" t="s">
-        <v>292</v>
-      </c>
-      <c r="C230" s="168"/>
-      <c r="D230" s="168"/>
-      <c r="E230" s="168"/>
-      <c r="F230" s="168"/>
-      <c r="G230" s="168"/>
-      <c r="H230" s="132"/>
+      <c r="B230" s="156" t="s">
+        <v>291</v>
+      </c>
+      <c r="C230" s="156"/>
+      <c r="D230" s="156"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="156"/>
+      <c r="G230" s="156"/>
+      <c r="H230" s="130"/>
       <c r="I230" s="25"/>
       <c r="L230" s="106"/>
       <c r="M230" s="120"/>
@@ -6954,15 +6789,15 @@
       <c r="P230" s="107"/>
     </row>
     <row r="231" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="C231" s="168"/>
-      <c r="D231" s="168"/>
-      <c r="E231" s="168"/>
-      <c r="F231" s="168"/>
-      <c r="G231" s="168"/>
-      <c r="H231" s="132"/>
+      <c r="B231" s="156" t="s">
+        <v>292</v>
+      </c>
+      <c r="C231" s="156"/>
+      <c r="D231" s="156"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="156"/>
+      <c r="G231" s="156"/>
+      <c r="H231" s="130"/>
       <c r="I231" s="25"/>
       <c r="L231" s="106"/>
       <c r="M231" s="120"/>
@@ -6971,13 +6806,13 @@
       <c r="P231" s="107"/>
     </row>
     <row r="232" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="136"/>
-      <c r="C232" s="136"/>
-      <c r="D232" s="136"/>
-      <c r="E232" s="136"/>
-      <c r="F232" s="136"/>
-      <c r="G232" s="136"/>
-      <c r="H232" s="137"/>
+      <c r="B232" s="131"/>
+      <c r="C232" s="131"/>
+      <c r="D232" s="131"/>
+      <c r="E232" s="131"/>
+      <c r="F232" s="131"/>
+      <c r="G232" s="131"/>
+      <c r="H232" s="132"/>
       <c r="I232" s="25"/>
       <c r="L232" s="106"/>
       <c r="M232" s="120"/>
@@ -6991,8 +6826,8 @@
       <c r="D233" s="58"/>
       <c r="E233" s="58"/>
       <c r="F233" s="58"/>
-      <c r="G233" s="129"/>
-      <c r="H233" s="129"/>
+      <c r="G233" s="128"/>
+      <c r="H233" s="128"/>
       <c r="I233" s="25"/>
       <c r="L233" s="117" t="str">
         <f>"Mechanical Services" &amp; " Total"</f>
@@ -7025,41 +6860,41 @@
       <c r="L234" s="58"/>
       <c r="M234" s="58"/>
       <c r="N234" s="58"/>
-      <c r="O234" s="130"/>
-      <c r="P234" s="130"/>
+      <c r="O234" s="129"/>
+      <c r="P234" s="129"/>
     </row>
     <row r="235" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="143" t="s">
+      <c r="B235" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="C235" s="143"/>
-      <c r="D235" s="143"/>
-      <c r="E235" s="143"/>
-      <c r="F235" s="143"/>
-      <c r="G235" s="143"/>
-      <c r="H235" s="143"/>
-      <c r="I235" s="143"/>
+      <c r="C235" s="142"/>
+      <c r="D235" s="142"/>
+      <c r="E235" s="142"/>
+      <c r="F235" s="142"/>
+      <c r="G235" s="142"/>
+      <c r="H235" s="142"/>
+      <c r="I235" s="142"/>
       <c r="L235" s="58"/>
       <c r="M235" s="58"/>
       <c r="N235" s="58"/>
-      <c r="O235" s="130"/>
-      <c r="P235" s="130"/>
+      <c r="O235" s="129"/>
+      <c r="P235" s="129"/>
     </row>
     <row r="236" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="46"/>
-      <c r="B236" s="143"/>
-      <c r="C236" s="143"/>
-      <c r="D236" s="143"/>
-      <c r="E236" s="143"/>
-      <c r="F236" s="143"/>
-      <c r="G236" s="143"/>
-      <c r="H236" s="143"/>
-      <c r="I236" s="143"/>
+      <c r="B236" s="142"/>
+      <c r="C236" s="142"/>
+      <c r="D236" s="142"/>
+      <c r="E236" s="142"/>
+      <c r="F236" s="142"/>
+      <c r="G236" s="142"/>
+      <c r="H236" s="142"/>
+      <c r="I236" s="142"/>
       <c r="L236" s="58"/>
       <c r="M236" s="58"/>
       <c r="N236" s="58"/>
-      <c r="O236" s="130"/>
-      <c r="P236" s="130"/>
+      <c r="O236" s="129"/>
+      <c r="P236" s="129"/>
     </row>
     <row r="237" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="46"/>
@@ -7081,8 +6916,8 @@
       <c r="L237" s="58"/>
       <c r="M237" s="58"/>
       <c r="N237" s="58"/>
-      <c r="O237" s="130"/>
-      <c r="P237" s="130"/>
+      <c r="O237" s="129"/>
+      <c r="P237" s="129"/>
     </row>
     <row r="238" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
@@ -7101,8 +6936,8 @@
       <c r="L238" s="58"/>
       <c r="M238" s="58"/>
       <c r="N238" s="58"/>
-      <c r="O238" s="130"/>
-      <c r="P238" s="130"/>
+      <c r="O238" s="129"/>
+      <c r="P238" s="129"/>
     </row>
     <row r="239" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
@@ -7121,8 +6956,8 @@
       <c r="L239" s="58"/>
       <c r="M239" s="58"/>
       <c r="N239" s="58"/>
-      <c r="O239" s="130"/>
-      <c r="P239" s="130"/>
+      <c r="O239" s="129"/>
+      <c r="P239" s="129"/>
     </row>
     <row r="240" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
@@ -7141,8 +6976,8 @@
       <c r="L240" s="58"/>
       <c r="M240" s="58"/>
       <c r="N240" s="58"/>
-      <c r="O240" s="130"/>
-      <c r="P240" s="130"/>
+      <c r="O240" s="129"/>
+      <c r="P240" s="129"/>
     </row>
     <row r="241" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E241" s="50"/>
@@ -7151,8 +6986,8 @@
       <c r="L241" s="58"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
-      <c r="O241" s="130"/>
-      <c r="P241" s="130"/>
+      <c r="O241" s="129"/>
+      <c r="P241" s="129"/>
     </row>
     <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="46" t="s">
@@ -7167,8 +7002,8 @@
       <c r="L242" s="58"/>
       <c r="M242" s="58"/>
       <c r="N242" s="58"/>
-      <c r="O242" s="130"/>
-      <c r="P242" s="130"/>
+      <c r="O242" s="129"/>
+      <c r="P242" s="129"/>
     </row>
     <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="25" t="s">
@@ -7183,8 +7018,8 @@
       <c r="L243" s="58"/>
       <c r="M243" s="58"/>
       <c r="N243" s="58"/>
-      <c r="O243" s="130"/>
-      <c r="P243" s="130"/>
+      <c r="O243" s="129"/>
+      <c r="P243" s="129"/>
     </row>
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
@@ -7199,8 +7034,8 @@
       <c r="L244" s="58"/>
       <c r="M244" s="58"/>
       <c r="N244" s="58"/>
-      <c r="O244" s="130"/>
-      <c r="P244" s="130"/>
+      <c r="O244" s="129"/>
+      <c r="P244" s="129"/>
     </row>
     <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E245" s="50"/>
@@ -7209,8 +7044,8 @@
       <c r="L245" s="58"/>
       <c r="M245" s="58"/>
       <c r="N245" s="58"/>
-      <c r="O245" s="130"/>
-      <c r="P245" s="130"/>
+      <c r="O245" s="129"/>
+      <c r="P245" s="129"/>
     </row>
     <row r="246" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="59" t="s">
@@ -7229,8 +7064,8 @@
       <c r="L246" s="58"/>
       <c r="M246" s="58"/>
       <c r="N246" s="58"/>
-      <c r="O246" s="130"/>
-      <c r="P246" s="130"/>
+      <c r="O246" s="129"/>
+      <c r="P246" s="129"/>
     </row>
     <row r="247" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="46"/>
@@ -7238,8 +7073,8 @@
       <c r="L247" s="58"/>
       <c r="M247" s="58"/>
       <c r="N247" s="58"/>
-      <c r="O247" s="130"/>
-      <c r="P247" s="130"/>
+      <c r="O247" s="129"/>
+      <c r="P247" s="129"/>
     </row>
     <row r="248" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="46"/>
@@ -7255,8 +7090,8 @@
       <c r="L248" s="58"/>
       <c r="M248" s="58"/>
       <c r="N248" s="58"/>
-      <c r="O248" s="130"/>
-      <c r="P248" s="130"/>
+      <c r="O248" s="129"/>
+      <c r="P248" s="129"/>
     </row>
     <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="35" t="s">
@@ -7268,16 +7103,16 @@
       <c r="L249" s="58"/>
       <c r="M249" s="58"/>
       <c r="N249" s="58"/>
-      <c r="O249" s="130"/>
-      <c r="P249" s="130"/>
+      <c r="O249" s="129"/>
+      <c r="P249" s="129"/>
     </row>
     <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="35"/>
       <c r="L250" s="58"/>
       <c r="M250" s="58"/>
       <c r="N250" s="58"/>
-      <c r="O250" s="130"/>
-      <c r="P250" s="130"/>
+      <c r="O250" s="129"/>
+      <c r="P250" s="129"/>
     </row>
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="35" t="s">
@@ -7289,8 +7124,8 @@
       <c r="L251" s="58"/>
       <c r="M251" s="58"/>
       <c r="N251" s="58"/>
-      <c r="O251" s="130"/>
-      <c r="P251" s="130"/>
+      <c r="O251" s="129"/>
+      <c r="P251" s="129"/>
     </row>
     <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="35"/>
@@ -7300,8 +7135,8 @@
       <c r="L252" s="58"/>
       <c r="M252" s="58"/>
       <c r="N252" s="58"/>
-      <c r="O252" s="130"/>
-      <c r="P252" s="130"/>
+      <c r="O252" s="129"/>
+      <c r="P252" s="129"/>
     </row>
     <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="35"/>
@@ -7311,8 +7146,8 @@
       <c r="L253" s="58"/>
       <c r="M253" s="58"/>
       <c r="N253" s="58"/>
-      <c r="O253" s="130"/>
-      <c r="P253" s="130"/>
+      <c r="O253" s="129"/>
+      <c r="P253" s="129"/>
     </row>
     <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="35"/>
@@ -7322,8 +7157,8 @@
       <c r="L254" s="58"/>
       <c r="M254" s="58"/>
       <c r="N254" s="58"/>
-      <c r="O254" s="130"/>
-      <c r="P254" s="130"/>
+      <c r="O254" s="129"/>
+      <c r="P254" s="129"/>
     </row>
     <row r="255" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="35"/>
@@ -7333,8 +7168,8 @@
       <c r="L255" s="58"/>
       <c r="M255" s="58"/>
       <c r="N255" s="58"/>
-      <c r="O255" s="130"/>
-      <c r="P255" s="130"/>
+      <c r="O255" s="129"/>
+      <c r="P255" s="129"/>
     </row>
     <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="35"/>
@@ -7344,8 +7179,8 @@
       <c r="L256" s="58"/>
       <c r="M256" s="58"/>
       <c r="N256" s="58"/>
-      <c r="O256" s="130"/>
-      <c r="P256" s="130"/>
+      <c r="O256" s="129"/>
+      <c r="P256" s="129"/>
     </row>
     <row r="257" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="35" t="s">
@@ -7354,50 +7189,50 @@
       <c r="L257" s="58"/>
       <c r="M257" s="58"/>
       <c r="N257" s="58"/>
-      <c r="O257" s="130"/>
-      <c r="P257" s="130"/>
+      <c r="O257" s="129"/>
+      <c r="P257" s="129"/>
     </row>
     <row r="258" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="33"/>
       <c r="L258" s="58"/>
       <c r="M258" s="58"/>
       <c r="N258" s="58"/>
-      <c r="O258" s="130"/>
-      <c r="P258" s="130"/>
+      <c r="O258" s="129"/>
+      <c r="P258" s="129"/>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B259" s="33"/>
       <c r="L259" s="58"/>
       <c r="M259" s="58"/>
       <c r="N259" s="58"/>
-      <c r="O259" s="130"/>
-      <c r="P259" s="130"/>
+      <c r="O259" s="129"/>
+      <c r="P259" s="129"/>
     </row>
     <row r="260" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="33"/>
       <c r="L260" s="58"/>
       <c r="M260" s="58"/>
       <c r="N260" s="58"/>
-      <c r="O260" s="130"/>
-      <c r="P260" s="130"/>
+      <c r="O260" s="129"/>
+      <c r="P260" s="129"/>
     </row>
     <row r="261" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="33"/>
       <c r="L261" s="58"/>
       <c r="M261" s="58"/>
       <c r="N261" s="58"/>
-      <c r="O261" s="130"/>
-      <c r="P261" s="130"/>
+      <c r="O261" s="129"/>
+      <c r="P261" s="129"/>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B262" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F262" s="166">
+      <c r="F262" s="154">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="G262" s="166"/>
+        <v>45309</v>
+      </c>
+      <c r="G262" s="154"/>
       <c r="P262" s="65"/>
     </row>
     <row r="263" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -7413,374 +7248,374 @@
       <c r="A264" s="28">
         <v>1</v>
       </c>
-      <c r="B264" s="148" t="s">
+      <c r="B264" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="C264" s="148"/>
-      <c r="D264" s="148"/>
-      <c r="E264" s="148"/>
-      <c r="F264" s="148"/>
-      <c r="G264" s="148"/>
-      <c r="H264" s="148"/>
-      <c r="I264" s="148"/>
+      <c r="C264" s="147"/>
+      <c r="D264" s="147"/>
+      <c r="E264" s="147"/>
+      <c r="F264" s="147"/>
+      <c r="G264" s="147"/>
+      <c r="H264" s="147"/>
+      <c r="I264" s="147"/>
     </row>
     <row r="265" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>2</v>
       </c>
-      <c r="B265" s="148" t="s">
+      <c r="B265" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="C265" s="148"/>
-      <c r="D265" s="148"/>
-      <c r="E265" s="148"/>
-      <c r="F265" s="148"/>
-      <c r="G265" s="148"/>
-      <c r="H265" s="148"/>
-      <c r="I265" s="148"/>
+      <c r="C265" s="147"/>
+      <c r="D265" s="147"/>
+      <c r="E265" s="147"/>
+      <c r="F265" s="147"/>
+      <c r="G265" s="147"/>
+      <c r="H265" s="147"/>
+      <c r="I265" s="147"/>
     </row>
     <row r="266" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>3</v>
       </c>
-      <c r="B266" s="148" t="s">
+      <c r="B266" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="C266" s="148"/>
-      <c r="D266" s="148"/>
-      <c r="E266" s="148"/>
-      <c r="F266" s="148"/>
-      <c r="G266" s="148"/>
-      <c r="H266" s="148"/>
-      <c r="I266" s="148"/>
+      <c r="C266" s="147"/>
+      <c r="D266" s="147"/>
+      <c r="E266" s="147"/>
+      <c r="F266" s="147"/>
+      <c r="G266" s="147"/>
+      <c r="H266" s="147"/>
+      <c r="I266" s="147"/>
     </row>
     <row r="267" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>4</v>
       </c>
-      <c r="B267" s="148" t="s">
+      <c r="B267" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="C267" s="148"/>
-      <c r="D267" s="148"/>
-      <c r="E267" s="148"/>
-      <c r="F267" s="148"/>
-      <c r="G267" s="148"/>
-      <c r="H267" s="148"/>
-      <c r="I267" s="148"/>
+      <c r="C267" s="147"/>
+      <c r="D267" s="147"/>
+      <c r="E267" s="147"/>
+      <c r="F267" s="147"/>
+      <c r="G267" s="147"/>
+      <c r="H267" s="147"/>
+      <c r="I267" s="147"/>
     </row>
     <row r="268" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>5</v>
       </c>
-      <c r="B268" s="148" t="s">
+      <c r="B268" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="C268" s="148"/>
-      <c r="D268" s="148"/>
-      <c r="E268" s="148"/>
-      <c r="F268" s="148"/>
-      <c r="G268" s="148"/>
-      <c r="H268" s="148"/>
-      <c r="I268" s="148"/>
+      <c r="C268" s="147"/>
+      <c r="D268" s="147"/>
+      <c r="E268" s="147"/>
+      <c r="F268" s="147"/>
+      <c r="G268" s="147"/>
+      <c r="H268" s="147"/>
+      <c r="I268" s="147"/>
     </row>
     <row r="269" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
-      <c r="B269" s="148" t="s">
+      <c r="B269" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="148"/>
-      <c r="D269" s="148"/>
-      <c r="E269" s="148"/>
-      <c r="F269" s="148"/>
-      <c r="G269" s="148"/>
-      <c r="H269" s="148"/>
-      <c r="I269" s="148"/>
+      <c r="C269" s="147"/>
+      <c r="D269" s="147"/>
+      <c r="E269" s="147"/>
+      <c r="F269" s="147"/>
+      <c r="G269" s="147"/>
+      <c r="H269" s="147"/>
+      <c r="I269" s="147"/>
     </row>
     <row r="270" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="148" t="s">
+      <c r="B270" s="147" t="s">
         <v>168</v>
       </c>
-      <c r="C270" s="148"/>
-      <c r="D270" s="148"/>
-      <c r="E270" s="148"/>
-      <c r="F270" s="148"/>
-      <c r="G270" s="148"/>
-      <c r="H270" s="148"/>
-      <c r="I270" s="148"/>
+      <c r="C270" s="147"/>
+      <c r="D270" s="147"/>
+      <c r="E270" s="147"/>
+      <c r="F270" s="147"/>
+      <c r="G270" s="147"/>
+      <c r="H270" s="147"/>
+      <c r="I270" s="147"/>
     </row>
     <row r="271" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
-      <c r="B271" s="148" t="s">
+      <c r="B271" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C271" s="148"/>
-      <c r="D271" s="148"/>
-      <c r="E271" s="148"/>
-      <c r="F271" s="148"/>
-      <c r="G271" s="148"/>
-      <c r="H271" s="148"/>
-      <c r="I271" s="148"/>
+      <c r="C271" s="147"/>
+      <c r="D271" s="147"/>
+      <c r="E271" s="147"/>
+      <c r="F271" s="147"/>
+      <c r="G271" s="147"/>
+      <c r="H271" s="147"/>
+      <c r="I271" s="147"/>
     </row>
     <row r="272" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>6</v>
       </c>
-      <c r="B272" s="148" t="s">
+      <c r="B272" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="C272" s="148"/>
-      <c r="D272" s="148"/>
-      <c r="E272" s="148"/>
-      <c r="F272" s="148"/>
-      <c r="G272" s="148"/>
-      <c r="H272" s="148"/>
-      <c r="I272" s="148"/>
+      <c r="C272" s="147"/>
+      <c r="D272" s="147"/>
+      <c r="E272" s="147"/>
+      <c r="F272" s="147"/>
+      <c r="G272" s="147"/>
+      <c r="H272" s="147"/>
+      <c r="I272" s="147"/>
     </row>
     <row r="273" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="148" t="s">
+      <c r="B273" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="C273" s="148"/>
-      <c r="D273" s="148"/>
-      <c r="E273" s="148"/>
-      <c r="F273" s="148"/>
-      <c r="G273" s="148"/>
-      <c r="H273" s="148"/>
-      <c r="I273" s="148"/>
+      <c r="C273" s="147"/>
+      <c r="D273" s="147"/>
+      <c r="E273" s="147"/>
+      <c r="F273" s="147"/>
+      <c r="G273" s="147"/>
+      <c r="H273" s="147"/>
+      <c r="I273" s="147"/>
     </row>
     <row r="274" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
-      <c r="B274" s="148" t="s">
+      <c r="B274" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="C274" s="148"/>
-      <c r="D274" s="148"/>
-      <c r="E274" s="148"/>
-      <c r="F274" s="148"/>
-      <c r="G274" s="148"/>
-      <c r="H274" s="148"/>
-      <c r="I274" s="148"/>
+      <c r="C274" s="147"/>
+      <c r="D274" s="147"/>
+      <c r="E274" s="147"/>
+      <c r="F274" s="147"/>
+      <c r="G274" s="147"/>
+      <c r="H274" s="147"/>
+      <c r="I274" s="147"/>
     </row>
     <row r="275" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>7</v>
       </c>
-      <c r="B275" s="148" t="s">
+      <c r="B275" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="C275" s="148"/>
-      <c r="D275" s="148"/>
-      <c r="E275" s="148"/>
-      <c r="F275" s="148"/>
-      <c r="G275" s="148"/>
-      <c r="H275" s="148"/>
-      <c r="I275" s="148"/>
+      <c r="C275" s="147"/>
+      <c r="D275" s="147"/>
+      <c r="E275" s="147"/>
+      <c r="F275" s="147"/>
+      <c r="G275" s="147"/>
+      <c r="H275" s="147"/>
+      <c r="I275" s="147"/>
     </row>
     <row r="276" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>8</v>
       </c>
-      <c r="B276" s="148" t="s">
+      <c r="B276" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="C276" s="148"/>
-      <c r="D276" s="148"/>
-      <c r="E276" s="148"/>
-      <c r="F276" s="148"/>
-      <c r="G276" s="148"/>
-      <c r="H276" s="148"/>
-      <c r="I276" s="148"/>
+      <c r="C276" s="147"/>
+      <c r="D276" s="147"/>
+      <c r="E276" s="147"/>
+      <c r="F276" s="147"/>
+      <c r="G276" s="147"/>
+      <c r="H276" s="147"/>
+      <c r="I276" s="147"/>
     </row>
     <row r="277" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="28"/>
-      <c r="B277" s="148" t="s">
+      <c r="B277" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="C277" s="148"/>
-      <c r="D277" s="148"/>
-      <c r="E277" s="148"/>
-      <c r="F277" s="148"/>
-      <c r="G277" s="148"/>
-      <c r="H277" s="148"/>
-      <c r="I277" s="148"/>
+      <c r="C277" s="147"/>
+      <c r="D277" s="147"/>
+      <c r="E277" s="147"/>
+      <c r="F277" s="147"/>
+      <c r="G277" s="147"/>
+      <c r="H277" s="147"/>
+      <c r="I277" s="147"/>
     </row>
     <row r="278" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28"/>
-      <c r="B278" s="148" t="s">
+      <c r="B278" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="C278" s="148"/>
-      <c r="D278" s="148"/>
-      <c r="E278" s="148"/>
-      <c r="F278" s="148"/>
-      <c r="G278" s="148"/>
-      <c r="H278" s="148"/>
-      <c r="I278" s="148"/>
+      <c r="C278" s="147"/>
+      <c r="D278" s="147"/>
+      <c r="E278" s="147"/>
+      <c r="F278" s="147"/>
+      <c r="G278" s="147"/>
+      <c r="H278" s="147"/>
+      <c r="I278" s="147"/>
     </row>
     <row r="279" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28"/>
-      <c r="B279" s="148" t="s">
+      <c r="B279" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="C279" s="148"/>
-      <c r="D279" s="148"/>
-      <c r="E279" s="148"/>
-      <c r="F279" s="148"/>
-      <c r="G279" s="148"/>
-      <c r="H279" s="148"/>
-      <c r="I279" s="148"/>
+      <c r="C279" s="147"/>
+      <c r="D279" s="147"/>
+      <c r="E279" s="147"/>
+      <c r="F279" s="147"/>
+      <c r="G279" s="147"/>
+      <c r="H279" s="147"/>
+      <c r="I279" s="147"/>
     </row>
     <row r="280" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="28"/>
-      <c r="B280" s="148" t="s">
+      <c r="B280" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="C280" s="148"/>
-      <c r="D280" s="148"/>
-      <c r="E280" s="148"/>
-      <c r="F280" s="148"/>
-      <c r="G280" s="148"/>
-      <c r="H280" s="148"/>
-      <c r="I280" s="148"/>
+      <c r="C280" s="147"/>
+      <c r="D280" s="147"/>
+      <c r="E280" s="147"/>
+      <c r="F280" s="147"/>
+      <c r="G280" s="147"/>
+      <c r="H280" s="147"/>
+      <c r="I280" s="147"/>
     </row>
     <row r="281" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="28"/>
-      <c r="B281" s="148" t="s">
+      <c r="B281" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="C281" s="148"/>
-      <c r="D281" s="148"/>
-      <c r="E281" s="148"/>
-      <c r="F281" s="148"/>
-      <c r="G281" s="148"/>
-      <c r="H281" s="148"/>
-      <c r="I281" s="148"/>
+      <c r="C281" s="147"/>
+      <c r="D281" s="147"/>
+      <c r="E281" s="147"/>
+      <c r="F281" s="147"/>
+      <c r="G281" s="147"/>
+      <c r="H281" s="147"/>
+      <c r="I281" s="147"/>
     </row>
     <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28"/>
-      <c r="B282" s="148" t="s">
+      <c r="B282" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C282" s="148"/>
-      <c r="D282" s="148"/>
-      <c r="E282" s="148"/>
-      <c r="F282" s="148"/>
-      <c r="G282" s="148"/>
-      <c r="H282" s="148"/>
-      <c r="I282" s="148"/>
+      <c r="C282" s="147"/>
+      <c r="D282" s="147"/>
+      <c r="E282" s="147"/>
+      <c r="F282" s="147"/>
+      <c r="G282" s="147"/>
+      <c r="H282" s="147"/>
+      <c r="I282" s="147"/>
     </row>
     <row r="283" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>9</v>
       </c>
-      <c r="B283" s="148" t="s">
+      <c r="B283" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="C283" s="148"/>
-      <c r="D283" s="148"/>
-      <c r="E283" s="148"/>
-      <c r="F283" s="148"/>
-      <c r="G283" s="148"/>
-      <c r="H283" s="148"/>
-      <c r="I283" s="148"/>
+      <c r="C283" s="147"/>
+      <c r="D283" s="147"/>
+      <c r="E283" s="147"/>
+      <c r="F283" s="147"/>
+      <c r="G283" s="147"/>
+      <c r="H283" s="147"/>
+      <c r="I283" s="147"/>
     </row>
     <row r="284" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>10</v>
       </c>
-      <c r="B284" s="148" t="s">
+      <c r="B284" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="C284" s="148"/>
-      <c r="D284" s="148"/>
-      <c r="E284" s="148"/>
-      <c r="F284" s="148"/>
-      <c r="G284" s="148"/>
-      <c r="H284" s="148"/>
-      <c r="I284" s="148"/>
+      <c r="C284" s="147"/>
+      <c r="D284" s="147"/>
+      <c r="E284" s="147"/>
+      <c r="F284" s="147"/>
+      <c r="G284" s="147"/>
+      <c r="H284" s="147"/>
+      <c r="I284" s="147"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28"/>
-      <c r="B285" s="148" t="s">
+      <c r="B285" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="C285" s="148"/>
-      <c r="D285" s="148"/>
-      <c r="E285" s="148"/>
-      <c r="F285" s="148"/>
-      <c r="G285" s="148"/>
-      <c r="H285" s="148"/>
-      <c r="I285" s="148"/>
+      <c r="C285" s="147"/>
+      <c r="D285" s="147"/>
+      <c r="E285" s="147"/>
+      <c r="F285" s="147"/>
+      <c r="G285" s="147"/>
+      <c r="H285" s="147"/>
+      <c r="I285" s="147"/>
     </row>
     <row r="286" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="28"/>
-      <c r="B286" s="148" t="s">
+      <c r="B286" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="148"/>
-      <c r="D286" s="148"/>
-      <c r="E286" s="148"/>
-      <c r="F286" s="148"/>
-      <c r="G286" s="148"/>
-      <c r="H286" s="148"/>
-      <c r="I286" s="148"/>
+      <c r="C286" s="147"/>
+      <c r="D286" s="147"/>
+      <c r="E286" s="147"/>
+      <c r="F286" s="147"/>
+      <c r="G286" s="147"/>
+      <c r="H286" s="147"/>
+      <c r="I286" s="147"/>
     </row>
     <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="28"/>
-      <c r="B287" s="148" t="s">
+      <c r="B287" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C287" s="148"/>
-      <c r="D287" s="148"/>
-      <c r="E287" s="148"/>
-      <c r="F287" s="148"/>
-      <c r="G287" s="148"/>
-      <c r="H287" s="148"/>
-      <c r="I287" s="148"/>
+      <c r="C287" s="147"/>
+      <c r="D287" s="147"/>
+      <c r="E287" s="147"/>
+      <c r="F287" s="147"/>
+      <c r="G287" s="147"/>
+      <c r="H287" s="147"/>
+      <c r="I287" s="147"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28"/>
-      <c r="B288" s="148" t="s">
+      <c r="B288" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="C288" s="148"/>
-      <c r="D288" s="148"/>
-      <c r="E288" s="148"/>
-      <c r="F288" s="148"/>
-      <c r="G288" s="148"/>
-      <c r="H288" s="148"/>
-      <c r="I288" s="148"/>
+      <c r="C288" s="147"/>
+      <c r="D288" s="147"/>
+      <c r="E288" s="147"/>
+      <c r="F288" s="147"/>
+      <c r="G288" s="147"/>
+      <c r="H288" s="147"/>
+      <c r="I288" s="147"/>
     </row>
     <row r="289" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="28">
         <v>11</v>
       </c>
-      <c r="B289" s="148" t="s">
+      <c r="B289" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="148"/>
-      <c r="D289" s="148"/>
-      <c r="E289" s="148"/>
-      <c r="F289" s="148"/>
-      <c r="G289" s="148"/>
-      <c r="H289" s="148"/>
-      <c r="I289" s="148"/>
+      <c r="C289" s="147"/>
+      <c r="D289" s="147"/>
+      <c r="E289" s="147"/>
+      <c r="F289" s="147"/>
+      <c r="G289" s="147"/>
+      <c r="H289" s="147"/>
+      <c r="I289" s="147"/>
     </row>
     <row r="290" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="28"/>
-      <c r="B290" s="148" t="s">
+      <c r="B290" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C290" s="148"/>
-      <c r="D290" s="148"/>
-      <c r="E290" s="148"/>
-      <c r="F290" s="148"/>
-      <c r="G290" s="148"/>
-      <c r="H290" s="148"/>
-      <c r="I290" s="148"/>
+      <c r="C290" s="147"/>
+      <c r="D290" s="147"/>
+      <c r="E290" s="147"/>
+      <c r="F290" s="147"/>
+      <c r="G290" s="147"/>
+      <c r="H290" s="147"/>
+      <c r="I290" s="147"/>
     </row>
     <row r="291" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28"/>
@@ -7801,236 +7636,236 @@
     </row>
     <row r="292" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="28"/>
-      <c r="B292" s="148" t="s">
+      <c r="B292" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="148"/>
-      <c r="D292" s="148"/>
-      <c r="E292" s="148"/>
-      <c r="F292" s="148"/>
-      <c r="G292" s="148"/>
-      <c r="H292" s="148"/>
-      <c r="I292" s="148"/>
+      <c r="C292" s="147"/>
+      <c r="D292" s="147"/>
+      <c r="E292" s="147"/>
+      <c r="F292" s="147"/>
+      <c r="G292" s="147"/>
+      <c r="H292" s="147"/>
+      <c r="I292" s="147"/>
     </row>
     <row r="293" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="28">
         <v>12</v>
       </c>
-      <c r="B293" s="148" t="s">
+      <c r="B293" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="C293" s="148"/>
-      <c r="D293" s="148"/>
-      <c r="E293" s="148"/>
-      <c r="F293" s="148"/>
-      <c r="G293" s="148"/>
-      <c r="H293" s="148"/>
-      <c r="I293" s="148"/>
+      <c r="C293" s="147"/>
+      <c r="D293" s="147"/>
+      <c r="E293" s="147"/>
+      <c r="F293" s="147"/>
+      <c r="G293" s="147"/>
+      <c r="H293" s="147"/>
+      <c r="I293" s="147"/>
     </row>
     <row r="294" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
-      <c r="B294" s="148" t="s">
+      <c r="B294" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="C294" s="148"/>
-      <c r="D294" s="148"/>
-      <c r="E294" s="148"/>
-      <c r="F294" s="148"/>
-      <c r="G294" s="148"/>
-      <c r="H294" s="148"/>
-      <c r="I294" s="148"/>
+      <c r="C294" s="147"/>
+      <c r="D294" s="147"/>
+      <c r="E294" s="147"/>
+      <c r="F294" s="147"/>
+      <c r="G294" s="147"/>
+      <c r="H294" s="147"/>
+      <c r="I294" s="147"/>
     </row>
     <row r="295" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="28"/>
-      <c r="B295" s="148" t="s">
+      <c r="B295" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="C295" s="148"/>
-      <c r="D295" s="148"/>
-      <c r="E295" s="148"/>
-      <c r="F295" s="148"/>
-      <c r="G295" s="148"/>
-      <c r="H295" s="148"/>
-      <c r="I295" s="148"/>
+      <c r="C295" s="147"/>
+      <c r="D295" s="147"/>
+      <c r="E295" s="147"/>
+      <c r="F295" s="147"/>
+      <c r="G295" s="147"/>
+      <c r="H295" s="147"/>
+      <c r="I295" s="147"/>
     </row>
     <row r="296" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="28"/>
-      <c r="B296" s="148" t="s">
+      <c r="B296" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="C296" s="148"/>
-      <c r="D296" s="148"/>
-      <c r="E296" s="148"/>
-      <c r="F296" s="148"/>
-      <c r="G296" s="148"/>
-      <c r="H296" s="148"/>
-      <c r="I296" s="148"/>
+      <c r="C296" s="147"/>
+      <c r="D296" s="147"/>
+      <c r="E296" s="147"/>
+      <c r="F296" s="147"/>
+      <c r="G296" s="147"/>
+      <c r="H296" s="147"/>
+      <c r="I296" s="147"/>
     </row>
     <row r="297" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="28"/>
-      <c r="B297" s="148" t="s">
+      <c r="B297" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="C297" s="148"/>
-      <c r="D297" s="148"/>
-      <c r="E297" s="148"/>
-      <c r="F297" s="148"/>
-      <c r="G297" s="148"/>
-      <c r="H297" s="148"/>
-      <c r="I297" s="148"/>
+      <c r="C297" s="147"/>
+      <c r="D297" s="147"/>
+      <c r="E297" s="147"/>
+      <c r="F297" s="147"/>
+      <c r="G297" s="147"/>
+      <c r="H297" s="147"/>
+      <c r="I297" s="147"/>
     </row>
     <row r="298" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="28">
         <v>13</v>
       </c>
-      <c r="B298" s="148" t="s">
+      <c r="B298" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="C298" s="148"/>
-      <c r="D298" s="148"/>
-      <c r="E298" s="148"/>
-      <c r="F298" s="148"/>
-      <c r="G298" s="148"/>
-      <c r="H298" s="148"/>
-      <c r="I298" s="148"/>
+      <c r="C298" s="147"/>
+      <c r="D298" s="147"/>
+      <c r="E298" s="147"/>
+      <c r="F298" s="147"/>
+      <c r="G298" s="147"/>
+      <c r="H298" s="147"/>
+      <c r="I298" s="147"/>
     </row>
     <row r="299" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="28"/>
-      <c r="B299" s="148" t="s">
+      <c r="B299" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="148"/>
-      <c r="D299" s="148"/>
-      <c r="E299" s="148"/>
-      <c r="F299" s="148"/>
-      <c r="G299" s="148"/>
-      <c r="H299" s="148"/>
-      <c r="I299" s="148"/>
+      <c r="C299" s="147"/>
+      <c r="D299" s="147"/>
+      <c r="E299" s="147"/>
+      <c r="F299" s="147"/>
+      <c r="G299" s="147"/>
+      <c r="H299" s="147"/>
+      <c r="I299" s="147"/>
     </row>
     <row r="300" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="28"/>
-      <c r="B300" s="148" t="s">
+      <c r="B300" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="C300" s="148"/>
-      <c r="D300" s="148"/>
-      <c r="E300" s="148"/>
-      <c r="F300" s="148"/>
-      <c r="G300" s="148"/>
-      <c r="H300" s="148"/>
-      <c r="I300" s="148"/>
+      <c r="C300" s="147"/>
+      <c r="D300" s="147"/>
+      <c r="E300" s="147"/>
+      <c r="F300" s="147"/>
+      <c r="G300" s="147"/>
+      <c r="H300" s="147"/>
+      <c r="I300" s="147"/>
     </row>
     <row r="301" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="28">
         <v>14</v>
       </c>
-      <c r="B301" s="148" t="s">
+      <c r="B301" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="C301" s="148"/>
-      <c r="D301" s="148"/>
-      <c r="E301" s="148"/>
-      <c r="F301" s="148"/>
-      <c r="G301" s="148"/>
-      <c r="H301" s="148"/>
-      <c r="I301" s="148"/>
+      <c r="C301" s="147"/>
+      <c r="D301" s="147"/>
+      <c r="E301" s="147"/>
+      <c r="F301" s="147"/>
+      <c r="G301" s="147"/>
+      <c r="H301" s="147"/>
+      <c r="I301" s="147"/>
     </row>
     <row r="302" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="28"/>
-      <c r="B302" s="148" t="s">
+      <c r="B302" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="C302" s="148"/>
-      <c r="D302" s="148"/>
-      <c r="E302" s="148"/>
-      <c r="F302" s="148"/>
-      <c r="G302" s="148"/>
-      <c r="H302" s="148"/>
-      <c r="I302" s="148"/>
+      <c r="C302" s="147"/>
+      <c r="D302" s="147"/>
+      <c r="E302" s="147"/>
+      <c r="F302" s="147"/>
+      <c r="G302" s="147"/>
+      <c r="H302" s="147"/>
+      <c r="I302" s="147"/>
     </row>
     <row r="303" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="28"/>
-      <c r="B303" s="148" t="s">
+      <c r="B303" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="C303" s="148"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="148"/>
-      <c r="F303" s="148"/>
-      <c r="G303" s="148"/>
-      <c r="H303" s="148"/>
-      <c r="I303" s="148"/>
+      <c r="C303" s="147"/>
+      <c r="D303" s="147"/>
+      <c r="E303" s="147"/>
+      <c r="F303" s="147"/>
+      <c r="G303" s="147"/>
+      <c r="H303" s="147"/>
+      <c r="I303" s="147"/>
     </row>
     <row r="304" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="28"/>
-      <c r="B304" s="148" t="s">
+      <c r="B304" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="C304" s="148"/>
-      <c r="D304" s="148"/>
-      <c r="E304" s="148"/>
-      <c r="F304" s="148"/>
-      <c r="G304" s="148"/>
-      <c r="H304" s="148"/>
-      <c r="I304" s="148"/>
+      <c r="C304" s="147"/>
+      <c r="D304" s="147"/>
+      <c r="E304" s="147"/>
+      <c r="F304" s="147"/>
+      <c r="G304" s="147"/>
+      <c r="H304" s="147"/>
+      <c r="I304" s="147"/>
     </row>
     <row r="305" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="28"/>
-      <c r="B305" s="148" t="s">
+      <c r="B305" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="C305" s="148"/>
-      <c r="D305" s="148"/>
-      <c r="E305" s="148"/>
-      <c r="F305" s="148"/>
-      <c r="G305" s="148"/>
-      <c r="H305" s="148"/>
-      <c r="I305" s="148"/>
+      <c r="C305" s="147"/>
+      <c r="D305" s="147"/>
+      <c r="E305" s="147"/>
+      <c r="F305" s="147"/>
+      <c r="G305" s="147"/>
+      <c r="H305" s="147"/>
+      <c r="I305" s="147"/>
     </row>
     <row r="306" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="28">
         <v>15</v>
       </c>
-      <c r="B306" s="148" t="s">
+      <c r="B306" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="C306" s="148"/>
-      <c r="D306" s="148"/>
-      <c r="E306" s="148"/>
-      <c r="F306" s="148"/>
-      <c r="G306" s="148"/>
-      <c r="H306" s="148"/>
-      <c r="I306" s="148"/>
+      <c r="C306" s="147"/>
+      <c r="D306" s="147"/>
+      <c r="E306" s="147"/>
+      <c r="F306" s="147"/>
+      <c r="G306" s="147"/>
+      <c r="H306" s="147"/>
+      <c r="I306" s="147"/>
     </row>
     <row r="307" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="28">
         <v>16</v>
       </c>
-      <c r="B307" s="148" t="s">
+      <c r="B307" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="C307" s="148"/>
-      <c r="D307" s="148"/>
-      <c r="E307" s="148"/>
-      <c r="F307" s="148"/>
-      <c r="G307" s="148"/>
-      <c r="H307" s="148"/>
-      <c r="I307" s="148"/>
+      <c r="C307" s="147"/>
+      <c r="D307" s="147"/>
+      <c r="E307" s="147"/>
+      <c r="F307" s="147"/>
+      <c r="G307" s="147"/>
+      <c r="H307" s="147"/>
+      <c r="I307" s="147"/>
     </row>
     <row r="308" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="28">
         <v>17</v>
       </c>
-      <c r="B308" s="148" t="s">
+      <c r="B308" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="C308" s="148"/>
-      <c r="D308" s="148"/>
-      <c r="E308" s="148"/>
-      <c r="F308" s="148"/>
-      <c r="G308" s="148"/>
-      <c r="H308" s="148"/>
-      <c r="I308" s="148"/>
+      <c r="C308" s="147"/>
+      <c r="D308" s="147"/>
+      <c r="E308" s="147"/>
+      <c r="F308" s="147"/>
+      <c r="G308" s="147"/>
+      <c r="H308" s="147"/>
+      <c r="I308" s="147"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="51"/>
@@ -8048,19 +7883,20 @@
       <c r="A313" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="F226:F227"/>
-    <mergeCell ref="B235:I236"/>
+  <mergeCells count="102">
     <mergeCell ref="F262:G262"/>
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B230:G230"/>
     <mergeCell ref="B231:G231"/>
     <mergeCell ref="B226:C227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="G226:G227"/>
     <mergeCell ref="H226:H227"/>
+    <mergeCell ref="D226:E227"/>
+    <mergeCell ref="F226:G227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F229:G229"/>
     <mergeCell ref="B218:I221"/>
     <mergeCell ref="B206:I206"/>
     <mergeCell ref="B224:I225"/>
@@ -8069,12 +7905,7 @@
     <mergeCell ref="F214:G214"/>
     <mergeCell ref="D212:E212"/>
     <mergeCell ref="D213:E213"/>
-    <mergeCell ref="B117:C119"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="B235:I236"/>
     <mergeCell ref="M56:T59"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="M146:T146"/>
@@ -8093,10 +7924,6 @@
     <mergeCell ref="A53:I54"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="A56:I59"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
     <mergeCell ref="B308:I308"/>
     <mergeCell ref="B297:I297"/>
     <mergeCell ref="B298:I298"/>
@@ -8238,21 +8065,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8268,24 +8095,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8308,46 +8135,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="213" t="s">
+      <c r="F15" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="F16" s="217" t="s">
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="F16" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8361,43 +8188,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="216" t="s">
+      <c r="A20" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="216"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="214"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8416,17 +8243,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="212" t="s">
+      <c r="A25" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="212"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8437,257 +8264,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173" t="s">
+      <c r="C28" s="169"/>
+      <c r="D28" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="209" t="s">
+      <c r="C30" s="166"/>
+      <c r="D30" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="210"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="209" t="s">
+      <c r="C33" s="166"/>
+      <c r="D33" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="209" t="s">
+      <c r="C36" s="166"/>
+      <c r="D36" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="209" t="s">
+      <c r="C39" s="166"/>
+      <c r="D39" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="210"/>
-      <c r="E40" s="210"/>
-      <c r="F40" s="210"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="210"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
+      <c r="A45" s="168"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="175"/>
-      <c r="D47" s="174" t="s">
+      <c r="C47" s="171"/>
+      <c r="D47" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="179"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="176"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="182"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="178"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="188" t="s">
+      <c r="B49" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="189"/>
-      <c r="D49" s="192" t="s">
+      <c r="C49" s="185"/>
+      <c r="D49" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="194"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="190"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="190"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="197"/>
+      <c r="B50" s="186"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="192"/>
+      <c r="F50" s="192"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="193"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="198" t="s">
+      <c r="C51" s="185"/>
+      <c r="D51" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="199"/>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="200"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="196"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="207"/>
-      <c r="C52" s="208"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="202"/>
-      <c r="F52" s="202"/>
-      <c r="G52" s="202"/>
-      <c r="H52" s="203"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="199"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="190"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="205"/>
-      <c r="G53" s="205"/>
-      <c r="H53" s="206"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="201"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="201"/>
+      <c r="H53" s="202"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="186" t="s">
+      <c r="B54" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="187"/>
-      <c r="D54" s="183" t="s">
+      <c r="C54" s="183"/>
+      <c r="D54" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="185"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="180"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="181"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -8725,87 +8552,87 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="173" t="s">
+      <c r="B61" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173" t="s">
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="173"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="173"/>
-      <c r="E62" s="173"/>
-      <c r="F62" s="173"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="173"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="170" t="s">
+      <c r="B63" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170" t="s">
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="166"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="166"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="166"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="170" t="s">
+      <c r="B65" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170" t="s">
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="166"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="170"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="170"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="170"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
+      <c r="E66" s="166"/>
+      <c r="F66" s="166"/>
+      <c r="G66" s="166"/>
+      <c r="H66" s="166"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="171" t="s">
+      <c r="A73" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="171"/>
-      <c r="C73" s="171"/>
+      <c r="B73" s="167"/>
+      <c r="C73" s="167"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="172"/>
-      <c r="B74" s="172"/>
-      <c r="C74" s="172"/>
+      <c r="A74" s="168"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="168"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="172"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="172"/>
+      <c r="A75" s="168"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -8963,39 +8790,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="219" t="s">
+      <c r="D13" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="219"/>
+      <c r="E13" s="215"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="220" t="s">
+      <c r="G13" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="221" t="s">
+      <c r="D14" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="221"/>
-      <c r="G14" s="222" t="s">
+      <c r="E14" s="217"/>
+      <c r="G14" s="218" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="222"/>
-      <c r="I14" s="222"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9005,265 +8832,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="225" t="s">
+      <c r="D26" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="227"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="228" t="s">
+      <c r="C27" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="231" t="s">
+      <c r="D27" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="232"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="233"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="229"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="229"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="235"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="231"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="230"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="237"/>
-      <c r="H29" s="237"/>
-      <c r="I29" s="238"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="234"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="231" t="s">
+      <c r="D30" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="232"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="233"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="229"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="229"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="235"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="231"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="230"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="237"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="237"/>
-      <c r="I32" s="238"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="233"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="234"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="231" t="s">
+      <c r="D33" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="233"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="229"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="229"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="235"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="231"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="230"/>
-      <c r="D35" s="236"/>
-      <c r="E35" s="237"/>
-      <c r="F35" s="237"/>
-      <c r="G35" s="237"/>
-      <c r="H35" s="237"/>
-      <c r="I35" s="238"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="234"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="228" t="s">
+      <c r="C36" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="231" t="s">
+      <c r="D36" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="232"/>
-      <c r="F36" s="232"/>
-      <c r="G36" s="232"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="233"/>
+      <c r="E36" s="228"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="229"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="229"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="235"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="230"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="231"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="230"/>
-      <c r="D38" s="236"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="238"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="234"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="151" t="s">
+      <c r="L39" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="151" t="s">
+      <c r="L42" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="151"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151"/>
-      <c r="S42" s="151"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="150"/>
+      <c r="P42" s="150"/>
+      <c r="Q42" s="150"/>
+      <c r="R42" s="150"/>
+      <c r="S42" s="150"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9304,157 +9131,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="225" t="s">
+      <c r="D58" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="226"/>
-      <c r="F58" s="226"/>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
-      <c r="I58" s="227"/>
+      <c r="E58" s="222"/>
+      <c r="F58" s="222"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="222"/>
+      <c r="I58" s="223"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="228" t="s">
+      <c r="C59" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="231" t="s">
+      <c r="D59" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="232"/>
-      <c r="F59" s="232"/>
-      <c r="G59" s="232"/>
-      <c r="H59" s="232"/>
-      <c r="I59" s="233"/>
+      <c r="E59" s="228"/>
+      <c r="F59" s="228"/>
+      <c r="G59" s="228"/>
+      <c r="H59" s="228"/>
+      <c r="I59" s="229"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="230"/>
-      <c r="D60" s="236"/>
-      <c r="E60" s="237"/>
-      <c r="F60" s="237"/>
-      <c r="G60" s="237"/>
-      <c r="H60" s="237"/>
-      <c r="I60" s="238"/>
+      <c r="C60" s="226"/>
+      <c r="D60" s="232"/>
+      <c r="E60" s="233"/>
+      <c r="F60" s="233"/>
+      <c r="G60" s="233"/>
+      <c r="H60" s="233"/>
+      <c r="I60" s="234"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="228" t="s">
+      <c r="C61" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="231" t="s">
+      <c r="D61" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="232"/>
-      <c r="F61" s="232"/>
-      <c r="G61" s="232"/>
-      <c r="H61" s="232"/>
-      <c r="I61" s="233"/>
+      <c r="E61" s="228"/>
+      <c r="F61" s="228"/>
+      <c r="G61" s="228"/>
+      <c r="H61" s="228"/>
+      <c r="I61" s="229"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="230"/>
-      <c r="D62" s="236"/>
-      <c r="E62" s="237"/>
-      <c r="F62" s="237"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="237"/>
-      <c r="I62" s="238"/>
+      <c r="C62" s="226"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="233"/>
+      <c r="F62" s="233"/>
+      <c r="G62" s="233"/>
+      <c r="H62" s="233"/>
+      <c r="I62" s="234"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="228" t="s">
+      <c r="C63" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="231" t="s">
+      <c r="D63" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="232"/>
-      <c r="F63" s="232"/>
-      <c r="G63" s="232"/>
-      <c r="H63" s="232"/>
-      <c r="I63" s="233"/>
+      <c r="E63" s="228"/>
+      <c r="F63" s="228"/>
+      <c r="G63" s="228"/>
+      <c r="H63" s="228"/>
+      <c r="I63" s="229"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="230"/>
-      <c r="D64" s="236"/>
-      <c r="E64" s="237"/>
-      <c r="F64" s="237"/>
-      <c r="G64" s="237"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="238"/>
+      <c r="C64" s="226"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="233"/>
+      <c r="F64" s="233"/>
+      <c r="G64" s="233"/>
+      <c r="H64" s="233"/>
+      <c r="I64" s="234"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="228" t="s">
+      <c r="C65" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="231" t="s">
+      <c r="D65" s="227" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="232"/>
-      <c r="F65" s="232"/>
-      <c r="G65" s="232"/>
-      <c r="H65" s="232"/>
-      <c r="I65" s="233"/>
+      <c r="E65" s="228"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="228"/>
+      <c r="H65" s="228"/>
+      <c r="I65" s="229"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="229"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="235"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="230"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="231"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="230"/>
-      <c r="D67" s="236"/>
-      <c r="E67" s="237"/>
-      <c r="F67" s="237"/>
-      <c r="G67" s="237"/>
-      <c r="H67" s="237"/>
-      <c r="I67" s="238"/>
+      <c r="C67" s="226"/>
+      <c r="D67" s="232"/>
+      <c r="E67" s="233"/>
+      <c r="F67" s="233"/>
+      <c r="G67" s="233"/>
+      <c r="H67" s="233"/>
+      <c r="I67" s="234"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="228" t="s">
+      <c r="C68" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="231" t="s">
+      <c r="D68" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="232"/>
-      <c r="F68" s="232"/>
-      <c r="G68" s="232"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="233"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="229"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="229"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="235"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="230"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="231"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="230"/>
-      <c r="D70" s="236"/>
-      <c r="E70" s="237"/>
-      <c r="F70" s="237"/>
-      <c r="G70" s="237"/>
-      <c r="H70" s="237"/>
-      <c r="I70" s="238"/>
+      <c r="C70" s="226"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="233"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="233"/>
+      <c r="H70" s="233"/>
+      <c r="I70" s="234"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9465,53 +9292,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="240" t="s">
+      <c r="D74" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="241"/>
-      <c r="F74" s="241"/>
-      <c r="G74" s="241"/>
-      <c r="H74" s="241"/>
-      <c r="I74" s="242"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
+      <c r="I74" s="238"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="244"/>
-      <c r="F75" s="244"/>
-      <c r="G75" s="244"/>
-      <c r="H75" s="244"/>
-      <c r="I75" s="245"/>
+      <c r="E75" s="240"/>
+      <c r="F75" s="240"/>
+      <c r="G75" s="240"/>
+      <c r="H75" s="240"/>
+      <c r="I75" s="241"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="243" t="s">
+      <c r="D76" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="244"/>
-      <c r="F76" s="244"/>
-      <c r="G76" s="244"/>
-      <c r="H76" s="244"/>
-      <c r="I76" s="245"/>
+      <c r="E76" s="240"/>
+      <c r="F76" s="240"/>
+      <c r="G76" s="240"/>
+      <c r="H76" s="240"/>
+      <c r="I76" s="241"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="243" t="s">
+      <c r="D77" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="244"/>
-      <c r="F77" s="244"/>
-      <c r="G77" s="244"/>
-      <c r="H77" s="244"/>
-      <c r="I77" s="245"/>
+      <c r="E77" s="240"/>
+      <c r="F77" s="240"/>
+      <c r="G77" s="240"/>
+      <c r="H77" s="240"/>
+      <c r="I77" s="241"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9530,23 +9357,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="219" t="s">
+      <c r="C91" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="219"/>
+      <c r="D91" s="215"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="246">
+      <c r="G91" s="242">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="H91" s="246"/>
-      <c r="I91" s="246"/>
+        <v>45309</v>
+      </c>
+      <c r="H91" s="242"/>
+      <c r="I91" s="242"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="239"/>
-      <c r="H92" s="239"/>
+      <c r="G92" s="235"/>
+      <c r="H92" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -9714,40 +9541,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="219" t="s">
+      <c r="C13" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="219"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="221" t="s">
+      <c r="C14" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="F14" s="221" t="s">
+      <c r="D14" s="217"/>
+      <c r="F14" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="219" t="s">
+      <c r="C15" s="215" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -9756,232 +9583,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="247" t="s">
+      <c r="D26" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="249" t="s">
+      <c r="D27" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="245"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="248"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="245"/>
+      <c r="I28" s="245"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="248"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="248" t="s">
+      <c r="C30" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="249" t="s">
+      <c r="D30" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="245"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="248"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="245"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="248"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="245"/>
+      <c r="G32" s="245"/>
+      <c r="H32" s="245"/>
+      <c r="I32" s="245"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="248" t="s">
+      <c r="C33" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="249" t="s">
+      <c r="D33" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="245"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="245"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="248"/>
-      <c r="D34" s="249"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="245"/>
+      <c r="I34" s="245"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="248"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="249"/>
-      <c r="F35" s="249"/>
-      <c r="G35" s="249"/>
-      <c r="H35" s="249"/>
-      <c r="I35" s="249"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
+      <c r="F35" s="245"/>
+      <c r="G35" s="245"/>
+      <c r="H35" s="245"/>
+      <c r="I35" s="245"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="248" t="s">
+      <c r="C36" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="249" t="s">
+      <c r="D36" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="249"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="249"/>
-      <c r="H36" s="249"/>
-      <c r="I36" s="249"/>
+      <c r="E36" s="245"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="245"/>
+      <c r="H36" s="245"/>
+      <c r="I36" s="245"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="248"/>
-      <c r="D37" s="249"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-      <c r="H37" s="249"/>
-      <c r="I37" s="249"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="245"/>
+      <c r="E37" s="245"/>
+      <c r="F37" s="245"/>
+      <c r="G37" s="245"/>
+      <c r="H37" s="245"/>
+      <c r="I37" s="245"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="248"/>
-      <c r="D38" s="249"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="249"/>
-      <c r="H38" s="249"/>
-      <c r="I38" s="249"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="245"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="245"/>
+      <c r="G38" s="245"/>
+      <c r="H38" s="245"/>
+      <c r="I38" s="245"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10022,157 +9849,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="247" t="s">
+      <c r="D58" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="247"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="247"/>
-      <c r="H58" s="247"/>
-      <c r="I58" s="247"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="243"/>
+      <c r="H58" s="243"/>
+      <c r="I58" s="243"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="248" t="s">
+      <c r="C59" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="249" t="s">
+      <c r="D59" s="245" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="249"/>
-      <c r="F59" s="249"/>
-      <c r="G59" s="249"/>
-      <c r="H59" s="249"/>
-      <c r="I59" s="249"/>
+      <c r="E59" s="245"/>
+      <c r="F59" s="245"/>
+      <c r="G59" s="245"/>
+      <c r="H59" s="245"/>
+      <c r="I59" s="245"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="248"/>
-      <c r="D60" s="249"/>
-      <c r="E60" s="249"/>
-      <c r="F60" s="249"/>
-      <c r="G60" s="249"/>
-      <c r="H60" s="249"/>
-      <c r="I60" s="249"/>
+      <c r="C60" s="244"/>
+      <c r="D60" s="245"/>
+      <c r="E60" s="245"/>
+      <c r="F60" s="245"/>
+      <c r="G60" s="245"/>
+      <c r="H60" s="245"/>
+      <c r="I60" s="245"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="248" t="s">
+      <c r="C61" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="249" t="s">
+      <c r="D61" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="249"/>
-      <c r="F61" s="249"/>
-      <c r="G61" s="249"/>
-      <c r="H61" s="249"/>
-      <c r="I61" s="249"/>
+      <c r="E61" s="245"/>
+      <c r="F61" s="245"/>
+      <c r="G61" s="245"/>
+      <c r="H61" s="245"/>
+      <c r="I61" s="245"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="248"/>
-      <c r="D62" s="249"/>
-      <c r="E62" s="249"/>
-      <c r="F62" s="249"/>
-      <c r="G62" s="249"/>
-      <c r="H62" s="249"/>
-      <c r="I62" s="249"/>
+      <c r="C62" s="244"/>
+      <c r="D62" s="245"/>
+      <c r="E62" s="245"/>
+      <c r="F62" s="245"/>
+      <c r="G62" s="245"/>
+      <c r="H62" s="245"/>
+      <c r="I62" s="245"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="248" t="s">
+      <c r="C63" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="249" t="s">
+      <c r="D63" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="249"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="249"/>
-      <c r="I63" s="249"/>
+      <c r="E63" s="245"/>
+      <c r="F63" s="245"/>
+      <c r="G63" s="245"/>
+      <c r="H63" s="245"/>
+      <c r="I63" s="245"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="248"/>
-      <c r="D64" s="249"/>
-      <c r="E64" s="249"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
+      <c r="C64" s="244"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
+      <c r="F64" s="245"/>
+      <c r="G64" s="245"/>
+      <c r="H64" s="245"/>
+      <c r="I64" s="245"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="248" t="s">
+      <c r="C65" s="244" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="249" t="s">
+      <c r="D65" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="249"/>
-      <c r="F65" s="249"/>
-      <c r="G65" s="249"/>
-      <c r="H65" s="249"/>
-      <c r="I65" s="249"/>
+      <c r="E65" s="245"/>
+      <c r="F65" s="245"/>
+      <c r="G65" s="245"/>
+      <c r="H65" s="245"/>
+      <c r="I65" s="245"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="248"/>
-      <c r="D66" s="249"/>
-      <c r="E66" s="249"/>
-      <c r="F66" s="249"/>
-      <c r="G66" s="249"/>
-      <c r="H66" s="249"/>
-      <c r="I66" s="249"/>
+      <c r="C66" s="244"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="248"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="249"/>
-      <c r="F67" s="249"/>
-      <c r="G67" s="249"/>
-      <c r="H67" s="249"/>
-      <c r="I67" s="249"/>
+      <c r="C67" s="244"/>
+      <c r="D67" s="245"/>
+      <c r="E67" s="245"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="245"/>
+      <c r="H67" s="245"/>
+      <c r="I67" s="245"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="248" t="s">
+      <c r="C68" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="249" t="s">
+      <c r="D68" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="249"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="249"/>
-      <c r="H68" s="249"/>
-      <c r="I68" s="249"/>
+      <c r="E68" s="245"/>
+      <c r="F68" s="245"/>
+      <c r="G68" s="245"/>
+      <c r="H68" s="245"/>
+      <c r="I68" s="245"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="248"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="249"/>
-      <c r="H69" s="249"/>
-      <c r="I69" s="249"/>
+      <c r="C69" s="244"/>
+      <c r="D69" s="245"/>
+      <c r="E69" s="245"/>
+      <c r="F69" s="245"/>
+      <c r="G69" s="245"/>
+      <c r="H69" s="245"/>
+      <c r="I69" s="245"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="248"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
+      <c r="C70" s="244"/>
+      <c r="D70" s="245"/>
+      <c r="E70" s="245"/>
+      <c r="F70" s="245"/>
+      <c r="G70" s="245"/>
+      <c r="H70" s="245"/>
+      <c r="I70" s="245"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10183,53 +10010,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="251" t="s">
+      <c r="D74" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="251"/>
-      <c r="F74" s="251"/>
-      <c r="G74" s="251"/>
-      <c r="H74" s="251"/>
-      <c r="I74" s="251"/>
+      <c r="E74" s="247"/>
+      <c r="F74" s="247"/>
+      <c r="G74" s="247"/>
+      <c r="H74" s="247"/>
+      <c r="I74" s="247"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="250" t="s">
+      <c r="D75" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="250"/>
-      <c r="F75" s="250"/>
-      <c r="G75" s="250"/>
-      <c r="H75" s="250"/>
-      <c r="I75" s="250"/>
+      <c r="E75" s="246"/>
+      <c r="F75" s="246"/>
+      <c r="G75" s="246"/>
+      <c r="H75" s="246"/>
+      <c r="I75" s="246"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="250" t="s">
+      <c r="D76" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="250"/>
-      <c r="F76" s="250"/>
-      <c r="G76" s="250"/>
-      <c r="H76" s="250"/>
-      <c r="I76" s="250"/>
+      <c r="E76" s="246"/>
+      <c r="F76" s="246"/>
+      <c r="G76" s="246"/>
+      <c r="H76" s="246"/>
+      <c r="I76" s="246"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="250" t="s">
+      <c r="D77" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="250"/>
-      <c r="F77" s="250"/>
-      <c r="G77" s="250"/>
-      <c r="H77" s="250"/>
-      <c r="I77" s="250"/>
+      <c r="E77" s="246"/>
+      <c r="F77" s="246"/>
+      <c r="G77" s="246"/>
+      <c r="H77" s="246"/>
+      <c r="I77" s="246"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10246,23 +10073,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="219" t="s">
+      <c r="C91" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="219"/>
+      <c r="D91" s="215"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="246">
+      <c r="G91" s="242">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="H91" s="246"/>
-      <c r="I91" s="246"/>
+        <v>45309</v>
+      </c>
+      <c r="H91" s="242"/>
+      <c r="I91" s="242"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="166"/>
-      <c r="H92" s="166"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -10337,7 +10164,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10374,28 +10201,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10422,15 +10249,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10455,15 +10282,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10504,16 +10331,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10603,48 +10430,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="172"/>
-      <c r="G46" s="172"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="172"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="172"/>
-      <c r="F47" s="172"/>
-      <c r="G47" s="172"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="172"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="172"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10657,16 +10484,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -10680,16 +10507,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="139" t="s">
+      <c r="B62" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10712,218 +10539,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="172" t="s">
+      <c r="B68" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="172"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="259"/>
-      <c r="C71" s="260"/>
-      <c r="D71" s="263" t="s">
+      <c r="B71" s="255"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="264"/>
-      <c r="F71" s="263" t="s">
+      <c r="E71" s="260"/>
+      <c r="F71" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="264"/>
-      <c r="H71" s="263" t="s">
+      <c r="G71" s="260"/>
+      <c r="H71" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="264"/>
+      <c r="I71" s="260"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="261"/>
-      <c r="C72" s="262"/>
-      <c r="D72" s="265"/>
-      <c r="E72" s="266"/>
-      <c r="F72" s="265"/>
-      <c r="G72" s="266"/>
-      <c r="H72" s="265"/>
-      <c r="I72" s="266"/>
+      <c r="B72" s="257"/>
+      <c r="C72" s="258"/>
+      <c r="D72" s="261"/>
+      <c r="E72" s="262"/>
+      <c r="F72" s="261"/>
+      <c r="G72" s="262"/>
+      <c r="H72" s="261"/>
+      <c r="I72" s="262"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="255" t="s">
+      <c r="B73" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="256"/>
-      <c r="D73" s="252"/>
-      <c r="E73" s="253"/>
-      <c r="F73" s="254"/>
-      <c r="G73" s="253"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="253"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249"/>
+      <c r="F73" s="250"/>
+      <c r="G73" s="249"/>
+      <c r="H73" s="250"/>
+      <c r="I73" s="249"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="172" t="s">
+      <c r="B75" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="168"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="172"/>
-      <c r="C76" s="172"/>
-      <c r="D76" s="172"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="168"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="257" t="s">
+      <c r="E78" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="258"/>
-      <c r="G78" s="258"/>
-      <c r="H78" s="258"/>
+      <c r="F78" s="254"/>
+      <c r="G78" s="254"/>
+      <c r="H78" s="254"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="258"/>
-      <c r="F79" s="258"/>
-      <c r="G79" s="258"/>
-      <c r="H79" s="258"/>
+      <c r="E79" s="254"/>
+      <c r="F79" s="254"/>
+      <c r="G79" s="254"/>
+      <c r="H79" s="254"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="143" t="s">
+      <c r="A81" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="143"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="142"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="143"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="143"/>
-      <c r="H82" s="143"/>
-      <c r="I82" s="143"/>
+      <c r="A82" s="142"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="142"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="143"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="143"/>
+      <c r="A83" s="142"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="142"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="143"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="143"/>
-      <c r="G84" s="143"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="143"/>
+      <c r="A84" s="142"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="142"/>
+      <c r="I84" s="142"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="143"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="143"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="143"/>
+      <c r="A85" s="142"/>
+      <c r="B85" s="142"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="143"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="143"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="143"/>
+      <c r="A86" s="142"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="143"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="143"/>
+      <c r="A87" s="142"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="143"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
-      <c r="H88" s="143"/>
-      <c r="I88" s="143"/>
+      <c r="A88" s="142"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="142"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="143"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="143"/>
-      <c r="H89" s="143"/>
-      <c r="I89" s="143"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="142"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="142"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="143"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="143"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="143"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10971,7 +10798,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11008,28 +10835,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11056,15 +10883,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11089,15 +10916,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11138,16 +10965,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11237,48 +11064,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="172"/>
-      <c r="G46" s="172"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="172"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="172"/>
-      <c r="F47" s="172"/>
-      <c r="G47" s="172"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="172"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="172"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11291,16 +11118,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11314,16 +11141,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="139" t="s">
+      <c r="B62" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11346,218 +11173,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="172" t="s">
+      <c r="B68" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="172"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="259"/>
-      <c r="C71" s="260"/>
-      <c r="D71" s="263" t="s">
+      <c r="B71" s="255"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="264"/>
-      <c r="F71" s="263" t="s">
+      <c r="E71" s="260"/>
+      <c r="F71" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="264"/>
-      <c r="H71" s="263" t="s">
+      <c r="G71" s="260"/>
+      <c r="H71" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="264"/>
+      <c r="I71" s="260"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="261"/>
-      <c r="C72" s="262"/>
-      <c r="D72" s="265"/>
-      <c r="E72" s="266"/>
-      <c r="F72" s="265"/>
-      <c r="G72" s="266"/>
-      <c r="H72" s="265"/>
-      <c r="I72" s="266"/>
+      <c r="B72" s="257"/>
+      <c r="C72" s="258"/>
+      <c r="D72" s="261"/>
+      <c r="E72" s="262"/>
+      <c r="F72" s="261"/>
+      <c r="G72" s="262"/>
+      <c r="H72" s="261"/>
+      <c r="I72" s="262"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="255" t="s">
+      <c r="B73" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="256"/>
-      <c r="D73" s="252"/>
-      <c r="E73" s="253"/>
-      <c r="F73" s="254"/>
-      <c r="G73" s="253"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="253"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249"/>
+      <c r="F73" s="250"/>
+      <c r="G73" s="249"/>
+      <c r="H73" s="250"/>
+      <c r="I73" s="249"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="172" t="s">
+      <c r="B75" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="168"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="172"/>
-      <c r="C76" s="172"/>
-      <c r="D76" s="172"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="168"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="257" t="s">
+      <c r="E78" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="258"/>
-      <c r="G78" s="258"/>
-      <c r="H78" s="258"/>
+      <c r="F78" s="254"/>
+      <c r="G78" s="254"/>
+      <c r="H78" s="254"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="258"/>
-      <c r="F79" s="258"/>
-      <c r="G79" s="258"/>
-      <c r="H79" s="258"/>
+      <c r="E79" s="254"/>
+      <c r="F79" s="254"/>
+      <c r="G79" s="254"/>
+      <c r="H79" s="254"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="143" t="s">
+      <c r="A81" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="143"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="142"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="143"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="143"/>
-      <c r="H82" s="143"/>
-      <c r="I82" s="143"/>
+      <c r="A82" s="142"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="142"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="143"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="143"/>
+      <c r="A83" s="142"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="142"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="143"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="143"/>
-      <c r="G84" s="143"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="143"/>
+      <c r="A84" s="142"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="142"/>
+      <c r="I84" s="142"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="143"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="143"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="143"/>
+      <c r="A85" s="142"/>
+      <c r="B85" s="142"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="143"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="143"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="143"/>
+      <c r="A86" s="142"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="143"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="143"/>
+      <c r="A87" s="142"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="143"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
-      <c r="H88" s="143"/>
-      <c r="I88" s="143"/>
+      <c r="A88" s="142"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="142"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="143"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="143"/>
-      <c r="H89" s="143"/>
-      <c r="I89" s="143"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="142"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="142"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="143"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="143"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="143"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="20">
